--- a/Documents/aiccra_tables_PT_Jun22.xlsx
+++ b/Documents/aiccra_tables_PT_Jun22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/p_steward_cgiar_org/Documents/Projects/AICCRA/AICCRA_EFA/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{65DB0E83-1CF3-41B4-B75A-E65A3ECC901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936982A7-A2BE-4EB4-86DF-304D0E983205}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{65DB0E83-1CF3-41B4-B75A-E65A3ECC901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{108A36A4-0681-4391-BB2C-EB126497B53C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1512" yWindow="1224" windowWidth="21624" windowHeight="11112" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systems" sheetId="1" r:id="rId1"/>
@@ -1375,7 +1375,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1524,6 +1524,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,8 +1554,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1980,27 +1999,27 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="35.85546875" style="50" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="35.88671875" style="50" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D1" s="7" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +2045,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H2" s="7" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13</v>
       </c>
@@ -2075,7 +2094,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2110,7 +2129,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
@@ -2149,7 +2168,7 @@
         <v>74.82233502538071</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2188,7 +2207,7 @@
         <v>36.568986568986567</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>37</v>
       </c>
@@ -2227,7 +2246,7 @@
         <v>34.249628528974739</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38</v>
       </c>
@@ -2253,7 +2272,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>60</v>
       </c>
@@ -2286,7 +2305,7 @@
         <v>35.413957520589513</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>67</v>
       </c>
@@ -2319,7 +2338,7 @@
         <v>17.367168913560665</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>69</v>
       </c>
@@ -2345,7 +2364,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>71</v>
       </c>
@@ -2371,7 +2390,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>72</v>
       </c>
@@ -2397,7 +2416,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>96</v>
       </c>
@@ -2430,7 +2449,7 @@
         <v>9.6060442525634109</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>121</v>
       </c>
@@ -2463,7 +2482,7 @@
         <v>50.426026336173507</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>126</v>
       </c>
@@ -2489,7 +2508,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>127</v>
       </c>
@@ -2515,7 +2534,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>131</v>
       </c>
@@ -2541,7 +2560,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>134</v>
       </c>
@@ -2567,7 +2586,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>135</v>
       </c>
@@ -2593,7 +2612,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>156</v>
       </c>
@@ -2619,7 +2638,7 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>159</v>
       </c>
@@ -2652,7 +2671,7 @@
         <v>34.182590233545646</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>178</v>
       </c>
@@ -2678,7 +2697,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>179</v>
       </c>
@@ -2704,7 +2723,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>188</v>
       </c>
@@ -2730,7 +2749,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>189</v>
       </c>
@@ -2756,7 +2775,7 @@
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>203</v>
       </c>
@@ -2789,7 +2808,7 @@
         <v>30.86283185840708</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>204</v>
       </c>
@@ -2815,7 +2834,7 @@
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>40</v>
       </c>
@@ -2825,7 +2844,7 @@
         <v>64200355</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>0</v>
       </c>
@@ -2866,12 +2885,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13</v>
       </c>
@@ -2922,7 +2941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15</v>
       </c>
@@ -2970,7 +2989,7 @@
         <v>115926.9</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>16</v>
       </c>
@@ -3018,7 +3037,7 @@
         <v>276749.00000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -3066,7 +3085,7 @@
         <v>581117.69999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3114,7 +3133,7 @@
         <v>320932.89999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3162,7 +3181,7 @@
         <v>464392.9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>60</v>
       </c>
@@ -3210,7 +3229,7 @@
         <v>1131355.3000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>67</v>
       </c>
@@ -3258,7 +3277,7 @@
         <v>233409.09999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>69</v>
       </c>
@@ -3306,7 +3325,7 @@
         <v>245382.30000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>71</v>
       </c>
@@ -3354,7 +3373,7 @@
         <v>10294.4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>72</v>
       </c>
@@ -3402,7 +3421,7 @@
         <v>32403.699999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>96</v>
       </c>
@@ -3450,7 +3469,7 @@
         <v>572088.19999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>121</v>
       </c>
@@ -3498,7 +3517,7 @@
         <v>1247942.4000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>126</v>
       </c>
@@ -3546,7 +3565,7 @@
         <v>772201.8</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>127</v>
       </c>
@@ -3594,7 +3613,7 @@
         <v>1043615.5000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>131</v>
       </c>
@@ -3642,7 +3661,7 @@
         <v>97370.2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>134</v>
       </c>
@@ -3690,7 +3709,7 @@
         <v>1188851.6000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>135</v>
       </c>
@@ -3738,7 +3757,7 @@
         <v>903437.70000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>156</v>
       </c>
@@ -3786,7 +3805,7 @@
         <v>23650.300000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>159</v>
       </c>
@@ -3834,7 +3853,7 @@
         <v>195130.59999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>178</v>
       </c>
@@ -3882,7 +3901,7 @@
         <v>1273582.0999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>179</v>
       </c>
@@ -3930,7 +3949,7 @@
         <v>57854.899999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>188</v>
       </c>
@@ -3978,7 +3997,7 @@
         <v>883297</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>189</v>
       </c>
@@ -4026,7 +4045,7 @@
         <v>204686.1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>203</v>
       </c>
@@ -4074,7 +4093,7 @@
         <v>742165.2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>204</v>
       </c>
@@ -4122,7 +4141,7 @@
         <v>387864.49999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D59" s="4">
         <f>SUM(D33:D58)</f>
         <v>6808304.5999999987</v>
@@ -4172,7 +4191,7 @@
         <v>13030615.299999999</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -4195,7 +4214,7 @@
       <c r="N60" s="2"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13</v>
       </c>
@@ -4243,7 +4262,7 @@
         <v>12365991.200000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>15</v>
       </c>
@@ -4291,7 +4310,7 @@
         <v>11922072</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16</v>
       </c>
@@ -4339,7 +4358,7 @@
         <v>20918273.200000003</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>30</v>
       </c>
@@ -4387,7 +4406,7 @@
         <v>2430296.9999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>37</v>
       </c>
@@ -4435,7 +4454,7 @@
         <v>23083360.199999999</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>38</v>
       </c>
@@ -4483,7 +4502,7 @@
         <v>25891047</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>60</v>
       </c>
@@ -4531,7 +4550,7 @@
         <v>111714254.59999999</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4579,7 +4598,7 @@
         <v>29927567.900000002</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4627,7 +4646,7 @@
         <v>13843201.799999999</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>71</v>
       </c>
@@ -4675,7 +4694,7 @@
         <v>2141935.5999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>72</v>
       </c>
@@ -4723,7 +4742,7 @@
         <v>1838551.2</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>96</v>
       </c>
@@ -4771,7 +4790,7 @@
         <v>50964225.5</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>121</v>
       </c>
@@ -4819,7 +4838,7 @@
         <v>18609834.699999999</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>126</v>
       </c>
@@ -4867,7 +4886,7 @@
         <v>30749550.699999999</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>127</v>
       </c>
@@ -4915,7 +4934,7 @@
         <v>4148214.8999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>131</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v>19599278</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>134</v>
       </c>
@@ -5011,7 +5030,7 @@
         <v>24003197.700000003</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>135</v>
       </c>
@@ -5059,7 +5078,7 @@
         <v>203691920.90000001</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>156</v>
       </c>
@@ -5107,7 +5126,7 @@
         <v>12906841.100000001</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>159</v>
       </c>
@@ -5155,7 +5174,7 @@
         <v>16138675.6</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>178</v>
       </c>
@@ -5203,7 +5222,7 @@
         <v>16183149.1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>179</v>
       </c>
@@ -5251,7 +5270,7 @@
         <v>8069337.1999999993</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>188</v>
       </c>
@@ -5299,7 +5318,7 @@
         <v>57687512.499999993</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>189</v>
       </c>
@@ -5347,7 +5366,7 @@
         <v>43994064.299999997</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>203</v>
       </c>
@@ -5395,7 +5414,7 @@
         <v>18811956.399999999</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>204</v>
       </c>
@@ -5443,7 +5462,7 @@
         <v>17307594.399999999</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D87" s="4">
         <f t="shared" ref="D87:N87" si="3">SUM(D61:D86)</f>
         <v>71508378.5</v>
@@ -5493,7 +5512,7 @@
         <v>798941904.70000005</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -5510,7 +5529,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>13</v>
       </c>
@@ -5558,7 +5577,7 @@
         <v>869415806</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>15</v>
       </c>
@@ -5606,7 +5625,7 @@
         <v>1365805909</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>16</v>
       </c>
@@ -5654,7 +5673,7 @@
         <v>971010914.39999998</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>30</v>
       </c>
@@ -5702,7 +5721,7 @@
         <v>37979220.199999996</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>37</v>
       </c>
@@ -5750,7 +5769,7 @@
         <v>2722656369.1999998</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>38</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>2375246479</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>60</v>
       </c>
@@ -5846,7 +5865,7 @@
         <v>4013097299</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>67</v>
       </c>
@@ -5894,7 +5913,7 @@
         <v>3906213724</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>69</v>
       </c>
@@ -5942,7 +5961,7 @@
         <v>1419021899.8</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>71</v>
       </c>
@@ -5990,7 +6009,7 @@
         <v>100137851.40000001</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>72</v>
       </c>
@@ -6038,7 +6057,7 @@
         <v>98020399.599999994</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>96</v>
       </c>
@@ -6086,7 +6105,7 @@
         <v>2563450000</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>121</v>
       </c>
@@ -6134,7 +6153,7 @@
         <v>1105585411</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>126</v>
       </c>
@@ -6182,7 +6201,7 @@
         <v>1296181487</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>127</v>
       </c>
@@ -6230,7 +6249,7 @@
         <v>63180536.899999999</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>131</v>
       </c>
@@ -6278,7 +6297,7 @@
         <v>1448429024.1999998</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>134</v>
       </c>
@@ -6326,7 +6345,7 @@
         <v>1214042591.5999999</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>135</v>
       </c>
@@ -6374,7 +6393,7 @@
         <v>28707376511.799999</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>156</v>
       </c>
@@ -6422,7 +6441,7 @@
         <v>1240939479</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>159</v>
       </c>
@@ -6470,7 +6489,7 @@
         <v>693788904</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>178</v>
       </c>
@@ -6518,7 +6537,7 @@
         <v>773284361.70000005</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>179</v>
       </c>
@@ -6566,7 +6585,7 @@
         <v>471683644.80000001</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>188</v>
       </c>
@@ -6614,7 +6633,7 @@
         <v>3934313582.6999998</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>189</v>
       </c>
@@ -6662,7 +6681,7 @@
         <v>3935508584.5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>203</v>
       </c>
@@ -6710,7 +6729,7 @@
         <v>484057628.30000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>204</v>
       </c>
@@ -6758,7 +6777,7 @@
         <v>465046551</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D115" s="4">
         <f t="shared" ref="D115:N115" si="5">SUM(D89:D114)</f>
         <v>2482450312.4000001</v>
@@ -6808,7 +6827,7 @@
         <v>66275474170.099998</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>58</v>
       </c>
@@ -6825,7 +6844,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="4"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>13</v>
       </c>
@@ -6873,7 +6892,7 @@
         <v>1104775.4000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>15</v>
       </c>
@@ -6921,7 +6940,7 @@
         <v>1736666</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>16</v>
       </c>
@@ -6969,7 +6988,7 @@
         <v>4419977.2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>30</v>
       </c>
@@ -7017,7 +7036,7 @@
         <v>145623.1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>37</v>
       </c>
@@ -7065,7 +7084,7 @@
         <v>2548519.6000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>38</v>
       </c>
@@ -7113,7 +7132,7 @@
         <v>3076587.5</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>60</v>
       </c>
@@ -7161,7 +7180,7 @@
         <v>11142963.1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>67</v>
       </c>
@@ -7209,7 +7228,7 @@
         <v>4154340.6999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>69</v>
       </c>
@@ -7257,7 +7276,7 @@
         <v>2448596.6999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>71</v>
       </c>
@@ -7305,7 +7324,7 @@
         <v>327763.09999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>72</v>
       </c>
@@ -7353,7 +7372,7 @@
         <v>189920.7</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>96</v>
       </c>
@@ -7401,7 +7420,7 @@
         <v>4017100</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>121</v>
       </c>
@@ -7449,7 +7468,7 @@
         <v>3859711.4000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>126</v>
       </c>
@@ -7497,7 +7516,7 @@
         <v>4642718.9000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>127</v>
       </c>
@@ -7545,7 +7564,7 @@
         <v>314607.7</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7593,7 +7612,7 @@
         <v>3151524.9999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>134</v>
       </c>
@@ -7641,7 +7660,7 @@
         <v>12329579.400000002</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>135</v>
       </c>
@@ -7689,7 +7708,7 @@
         <v>37293766.199999996</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>156</v>
       </c>
@@ -7737,7 +7756,7 @@
         <v>1614061.2</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>159</v>
       </c>
@@ -7785,7 +7804,7 @@
         <v>2119909.1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>178</v>
       </c>
@@ -7833,7 +7852,7 @@
         <v>3080740.3</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>179</v>
       </c>
@@ -7881,7 +7900,7 @@
         <v>1224513.3999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>188</v>
       </c>
@@ -7929,7 +7948,7 @@
         <v>9496320.4999999981</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>189</v>
       </c>
@@ -7977,7 +7996,7 @@
         <v>5951851.1999999993</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>203</v>
       </c>
@@ -8025,7 +8044,7 @@
         <v>1186264.3999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>204</v>
       </c>
@@ -8073,7 +8092,7 @@
         <v>2539822.1000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D143" s="4">
         <f t="shared" ref="D143:N143" si="7">SUM(D117:D142)</f>
         <v>9443845.1000000015</v>
@@ -8123,7 +8142,7 @@
         <v>124118223.90000002</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -8140,7 +8159,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>13</v>
       </c>
@@ -8188,7 +8207,7 @@
         <v>17123231.300000001</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15</v>
       </c>
@@ -8236,7 +8255,7 @@
         <v>111139048.5</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>16</v>
       </c>
@@ -8284,7 +8303,7 @@
         <v>102224928.60000001</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>30</v>
       </c>
@@ -8332,7 +8351,7 @@
         <v>1827082.1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>37</v>
       </c>
@@ -8380,7 +8399,7 @@
         <v>89019570.400000006</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>38</v>
       </c>
@@ -8428,7 +8447,7 @@
         <v>152168972.30000001</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>60</v>
       </c>
@@ -8476,7 +8495,7 @@
         <v>510119939.60000002</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>67</v>
       </c>
@@ -8524,7 +8543,7 @@
         <v>165196791.19999999</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>69</v>
       </c>
@@ -8572,7 +8591,7 @@
         <v>70489618.200000003</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>71</v>
       </c>
@@ -8620,7 +8639,7 @@
         <v>4200025.5999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>72</v>
       </c>
@@ -8668,7 +8687,7 @@
         <v>5279058.9000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>96</v>
       </c>
@@ -8716,7 +8735,7 @@
         <v>410390583.19999999</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>121</v>
       </c>
@@ -8764,7 +8783,7 @@
         <v>84128933.200000003</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>126</v>
       </c>
@@ -8812,7 +8831,7 @@
         <v>159459394.69999999</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>127</v>
       </c>
@@ -8860,7 +8879,7 @@
         <v>1379470.0999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>131</v>
       </c>
@@ -8908,7 +8927,7 @@
         <v>254457639.40000001</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>134</v>
       </c>
@@ -8956,7 +8975,7 @@
         <v>1128417.8</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>135</v>
       </c>
@@ -9004,7 +9023,7 @@
         <v>869750400.79999995</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>156</v>
       </c>
@@ -9052,7 +9071,7 @@
         <v>12710281.9</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>159</v>
       </c>
@@ -9100,7 +9119,7 @@
         <v>45148573.799999997</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>178</v>
       </c>
@@ -9148,7 +9167,7 @@
         <v>22792408.199999999</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>179</v>
       </c>
@@ -9196,7 +9215,7 @@
         <v>75133535.199999988</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>188</v>
       </c>
@@ -9244,7 +9263,7 @@
         <v>521511911.5</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>189</v>
       </c>
@@ -9292,7 +9311,7 @@
         <v>166665044.30000001</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>203</v>
       </c>
@@ -9340,7 +9359,7 @@
         <v>164587375.79999998</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>204</v>
       </c>
@@ -9388,7 +9407,7 @@
         <v>192114618.50000003</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D171" s="4">
         <f t="shared" ref="D171:N171" si="9">SUM(D145:D170)</f>
         <v>272573340.60000002</v>
@@ -9438,7 +9457,7 @@
         <v>4210146855.0999994</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>49</v>
       </c>
@@ -9455,7 +9474,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>13</v>
       </c>
@@ -9503,7 +9522,7 @@
         <v>112897.9</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>15</v>
       </c>
@@ -9551,7 +9570,7 @@
         <v>680638.9</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>16</v>
       </c>
@@ -9599,7 +9618,7 @@
         <v>425214.89999999991</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>30</v>
       </c>
@@ -9647,7 +9666,7 @@
         <v>57250.5</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>37</v>
       </c>
@@ -9695,7 +9714,7 @@
         <v>280790.40000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>38</v>
       </c>
@@ -9743,7 +9762,7 @@
         <v>514061.39999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>60</v>
       </c>
@@ -9791,7 +9810,7 @@
         <v>1754189.5</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>67</v>
       </c>
@@ -9839,7 +9858,7 @@
         <v>752364.79999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>69</v>
       </c>
@@ -9887,7 +9906,7 @@
         <v>322966.89999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>71</v>
       </c>
@@ -9935,7 +9954,7 @@
         <v>27622.9</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>72</v>
       </c>
@@ -9983,7 +10002,7 @@
         <v>15060.299999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>96</v>
       </c>
@@ -10031,7 +10050,7 @@
         <v>1653292.9000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>121</v>
       </c>
@@ -10079,7 +10098,7 @@
         <v>389853.89999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>126</v>
       </c>
@@ -10127,7 +10146,7 @@
         <v>1578462.4999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>127</v>
       </c>
@@ -10175,7 +10194,7 @@
         <v>15656.2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>131</v>
       </c>
@@ -10223,7 +10242,7 @@
         <v>1592212.7000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>134</v>
       </c>
@@ -10271,7 +10290,7 @@
         <v>7759.2</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>135</v>
       </c>
@@ -10319,7 +10338,7 @@
         <v>3613392.4000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>156</v>
       </c>
@@ -10367,7 +10386,7 @@
         <v>105942.09999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>159</v>
       </c>
@@ -10415,7 +10434,7 @@
         <v>137555.19999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>178</v>
       </c>
@@ -10463,7 +10482,7 @@
         <v>158565.59999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>179</v>
       </c>
@@ -10511,7 +10530,7 @@
         <v>467532.79999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>188</v>
       </c>
@@ -10559,7 +10578,7 @@
         <v>2906801.8000000003</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>189</v>
       </c>
@@ -10607,7 +10626,7 @@
         <v>769207.4</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>203</v>
       </c>
@@ -10655,7 +10674,7 @@
         <v>611657.9</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>204</v>
       </c>
@@ -10703,7 +10722,7 @@
         <v>1637959.9000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D199" s="4">
         <f t="shared" ref="D199:N199" si="11">SUM(D173:D198)</f>
         <v>1500812.2000000002</v>
@@ -10753,7 +10772,7 @@
         <v>20588910.900000002</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>50</v>
       </c>
@@ -10770,7 +10789,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="4"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>13</v>
       </c>
@@ -10818,7 +10837,7 @@
         <v>120870</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>15</v>
       </c>
@@ -10866,7 +10885,7 @@
         <v>784446.3</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>16</v>
       </c>
@@ -10914,7 +10933,7 @@
         <v>721615.50000000012</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>30</v>
       </c>
@@ -10962,7 +10981,7 @@
         <v>12874.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>37</v>
       </c>
@@ -11010,7 +11029,7 @@
         <v>628361.19999999995</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>38</v>
       </c>
@@ -11058,7 +11077,7 @@
         <v>1073895</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>60</v>
       </c>
@@ -11106,7 +11125,7 @@
         <v>3600725.5000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>67</v>
       </c>
@@ -11154,7 +11173,7 @@
         <v>1166399.1999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>69</v>
       </c>
@@ -11202,7 +11221,7 @@
         <v>497538.9</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>71</v>
       </c>
@@ -11250,7 +11269,7 @@
         <v>29642.6</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>72</v>
       </c>
@@ -11298,7 +11317,7 @@
         <v>37261.700000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>96</v>
       </c>
@@ -11346,7 +11365,7 @@
         <v>2897093.5999999996</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>121</v>
       </c>
@@ -11394,7 +11413,7 @@
         <v>593954.50000000012</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>126</v>
       </c>
@@ -11442,7 +11461,7 @@
         <v>1124824.3</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>127</v>
       </c>
@@ -11490,7 +11509,7 @@
         <v>9743.4000000000015</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>131</v>
       </c>
@@ -11538,7 +11557,7 @@
         <v>1796143.0999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>134</v>
       </c>
@@ -11586,7 +11605,7 @@
         <v>7952.8</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>135</v>
       </c>
@@ -11634,7 +11653,7 @@
         <v>6139555.7999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>156</v>
       </c>
@@ -11682,7 +11701,7 @@
         <v>89677.7</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>159</v>
       </c>
@@ -11730,7 +11749,7 @@
         <v>318662.3</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>178</v>
       </c>
@@ -11778,7 +11797,7 @@
         <v>160944.4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>179</v>
       </c>
@@ -11826,7 +11845,7 @@
         <v>530280.9</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>188</v>
       </c>
@@ -11874,7 +11893,7 @@
         <v>3681717.3</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>189</v>
       </c>
@@ -11922,7 +11941,7 @@
         <v>1176479.9000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>203</v>
       </c>
@@ -11970,7 +11989,7 @@
         <v>1162005.6999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>204</v>
       </c>
@@ -12018,7 +12037,7 @@
         <v>1356481.5999999996</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D227" s="4">
         <f t="shared" ref="D227:N227" si="13">SUM(D201:D226)</f>
         <v>1924060.1000000003</v>
@@ -12068,7 +12087,7 @@
         <v>29719147.800000001</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -12085,7 +12104,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="4"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>13</v>
       </c>
@@ -12133,7 +12152,7 @@
         <v>5546</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>15</v>
       </c>
@@ -12181,7 +12200,7 @@
         <v>7109.9000000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>16</v>
       </c>
@@ -12229,7 +12248,7 @@
         <v>7052.8000000000011</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>30</v>
       </c>
@@ -12277,7 +12296,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>37</v>
       </c>
@@ -12325,7 +12344,7 @@
         <v>14858.400000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>38</v>
       </c>
@@ -12373,7 +12392,7 @@
         <v>16754.300000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>60</v>
       </c>
@@ -12421,7 +12440,7 @@
         <v>8455.4000000000015</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>67</v>
       </c>
@@ -12469,7 +12488,7 @@
         <v>11684.4</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>69</v>
       </c>
@@ -12517,7 +12536,7 @@
         <v>7962.0999999999985</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>71</v>
       </c>
@@ -12565,7 +12584,7 @@
         <v>1973.4</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>72</v>
       </c>
@@ -12613,7 +12632,7 @@
         <v>12828.400000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>96</v>
       </c>
@@ -12661,7 +12680,7 @@
         <v>10693.300000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>121</v>
       </c>
@@ -12709,7 +12728,7 @@
         <v>3969.5</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>126</v>
       </c>
@@ -12757,7 +12776,7 @@
         <v>5999.2999999999993</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>127</v>
       </c>
@@ -12805,7 +12824,7 @@
         <v>800.80000000000007</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>131</v>
       </c>
@@ -12853,7 +12872,7 @@
         <v>5719.9000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>134</v>
       </c>
@@ -12901,7 +12920,7 @@
         <v>4227.3</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>135</v>
       </c>
@@ -12949,7 +12968,7 @@
         <v>13887.299999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>156</v>
       </c>
@@ -12997,7 +13016,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>159</v>
       </c>
@@ -13045,7 +13064,7 @@
         <v>6647.4000000000005</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>178</v>
       </c>
@@ -13093,7 +13112,7 @@
         <v>3551.5000000000005</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>179</v>
       </c>
@@ -13141,7 +13160,7 @@
         <v>5244.6</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>188</v>
       </c>
@@ -13189,7 +13208,7 @@
         <v>10428.4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>189</v>
       </c>
@@ -13237,7 +13256,7 @@
         <v>5624.2999999999993</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>203</v>
       </c>
@@ -13285,7 +13304,7 @@
         <v>11530.9</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>204</v>
       </c>
@@ -13333,7 +13352,7 @@
         <v>6582.9</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D255" s="4">
         <f t="shared" ref="D255:N255" si="15">SUM(D229:D254)</f>
         <v>13537.3</v>
@@ -13383,7 +13402,7 @@
         <v>191791.99999999997</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>44</v>
       </c>
@@ -13400,7 +13419,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="4"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>13</v>
       </c>
@@ -13448,7 +13467,7 @@
         <v>12789305.5</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>15</v>
       </c>
@@ -13496,7 +13515,7 @@
         <v>32591093.099999998</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>16</v>
       </c>
@@ -13544,7 +13563,7 @@
         <v>151023254.80000001</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>30</v>
       </c>
@@ -13592,7 +13611,7 @@
         <v>16490033.299999999</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>37</v>
       </c>
@@ -13640,7 +13659,7 @@
         <v>29894710.099999998</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>38</v>
       </c>
@@ -13688,7 +13707,7 @@
         <v>186114179.90000001</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>60</v>
       </c>
@@ -13736,7 +13755,7 @@
         <v>1024517016.7</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>67</v>
       </c>
@@ -13784,7 +13803,7 @@
         <v>48494025.199999996</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>69</v>
       </c>
@@ -13832,7 +13851,7 @@
         <v>111488542.8</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>71</v>
       </c>
@@ -13880,7 +13899,7 @@
         <v>7831057.7000000002</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>72</v>
       </c>
@@ -13928,7 +13947,7 @@
         <v>8800372.8000000007</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>96</v>
       </c>
@@ -13976,7 +13995,7 @@
         <v>318375805.80000001</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>121</v>
       </c>
@@ -14024,7 +14043,7 @@
         <v>99854459.200000003</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>126</v>
       </c>
@@ -14072,7 +14091,7 @@
         <v>23235468.899999999</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>127</v>
       </c>
@@ -14120,7 +14139,7 @@
         <v>20325243.300000001</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>131</v>
       </c>
@@ -14168,7 +14187,7 @@
         <v>23675898.700000003</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>134</v>
       </c>
@@ -14216,7 +14235,7 @@
         <v>70162313.699999988</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>135</v>
       </c>
@@ -14264,7 +14283,7 @@
         <v>522840028.89999998</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>156</v>
       </c>
@@ -14312,7 +14331,7 @@
         <v>29597920.699999999</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>159</v>
       </c>
@@ -14360,7 +14379,7 @@
         <v>61255094.600000009</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>178</v>
       </c>
@@ -14408,7 +14427,7 @@
         <v>161023600.00000003</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>179</v>
       </c>
@@ -14456,7 +14475,7 @@
         <v>14702810.6</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>188</v>
       </c>
@@ -14504,7 +14523,7 @@
         <v>244276710.10000002</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>189</v>
       </c>
@@ -14552,7 +14571,7 @@
         <v>183807054.80000001</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>203</v>
       </c>
@@ -14600,7 +14619,7 @@
         <v>39474213.200000003</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>204</v>
       </c>
@@ -14648,7 +14667,7 @@
         <v>116636074.09999999</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D283" s="4">
         <f t="shared" ref="D283:N283" si="17">SUM(D257:D282)</f>
         <v>216543858</v>
@@ -14698,7 +14717,7 @@
         <v>3559276288.4999995</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>45</v>
       </c>
@@ -14715,7 +14734,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="4"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>13</v>
       </c>
@@ -14763,7 +14782,7 @@
         <v>10839849.4</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>15</v>
       </c>
@@ -14811,7 +14830,7 @@
         <v>15411179.899999999</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>16</v>
       </c>
@@ -14859,7 +14878,7 @@
         <v>39992491.599999994</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>30</v>
       </c>
@@ -14907,7 +14926,7 @@
         <v>24864541.300000001</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>37</v>
       </c>
@@ -14955,7 +14974,7 @@
         <v>21483365.199999999</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>38</v>
       </c>
@@ -15003,7 +15022,7 @@
         <v>45649003.299999997</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>60</v>
       </c>
@@ -15051,7 +15070,7 @@
         <v>1012607173.8</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>67</v>
       </c>
@@ -15099,7 +15118,7 @@
         <v>21121504.900000002</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>69</v>
       </c>
@@ -15147,7 +15166,7 @@
         <v>47316569.799999997</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>71</v>
       </c>
@@ -15195,7 +15214,7 @@
         <v>2150434.9</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>72</v>
       </c>
@@ -15243,7 +15262,7 @@
         <v>3434760.8</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>96</v>
       </c>
@@ -15291,7 +15310,7 @@
         <v>368358413.5</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>121</v>
       </c>
@@ -15339,7 +15358,7 @@
         <v>34036312.699999996</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>126</v>
       </c>
@@ -15387,7 +15406,7 @@
         <v>16015744</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>127</v>
       </c>
@@ -15435,7 +15454,7 @@
         <v>8627168.5999999996</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>131</v>
       </c>
@@ -15483,7 +15502,7 @@
         <v>16945023.800000001</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>134</v>
       </c>
@@ -15531,7 +15550,7 @@
         <v>30481884.599999998</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>135</v>
       </c>
@@ -15579,7 +15598,7 @@
         <v>163780699.20000002</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>156</v>
       </c>
@@ -15627,7 +15646,7 @@
         <v>24255072.100000001</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>159</v>
       </c>
@@ -15675,7 +15694,7 @@
         <v>17451074.200000003</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>178</v>
       </c>
@@ -15723,7 +15742,7 @@
         <v>30193430.899999999</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>179</v>
       </c>
@@ -15771,7 +15790,7 @@
         <v>5093184.5000000009</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>188</v>
       </c>
@@ -15819,7 +15838,7 @@
         <v>364443454.10000002</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>189</v>
       </c>
@@ -15867,7 +15886,7 @@
         <v>170938380.39999998</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>203</v>
       </c>
@@ -15915,7 +15934,7 @@
         <v>37521292.200000003</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>204</v>
       </c>
@@ -15963,7 +15982,7 @@
         <v>99493844.5</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D311" s="4">
         <f t="shared" ref="D311:N311" si="19">SUM(D285:D310)</f>
         <v>249395871.00000003</v>
@@ -16013,7 +16032,7 @@
         <v>2632505854.1999998</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>46</v>
       </c>
@@ -16030,7 +16049,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="4"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>13</v>
       </c>
@@ -16078,7 +16097,7 @@
         <v>6671521.7999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>15</v>
       </c>
@@ -16126,7 +16145,7 @@
         <v>17001098.400000002</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>16</v>
       </c>
@@ -16174,7 +16193,7 @@
         <v>78780885.699999988</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>30</v>
       </c>
@@ -16222,7 +16241,7 @@
         <v>8602007</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>37</v>
       </c>
@@ -16270,7 +16289,7 @@
         <v>15594530.699999999</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>38</v>
       </c>
@@ -16318,7 +16337,7 @@
         <v>97086217.199999988</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>60</v>
       </c>
@@ -16366,7 +16385,7 @@
         <v>534436853.60000002</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>67</v>
       </c>
@@ -16414,7 +16433,7 @@
         <v>25296856.099999998</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>69</v>
       </c>
@@ -16462,7 +16481,7 @@
         <v>58157868.399999991</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>71</v>
       </c>
@@ -16510,7 +16529,7 @@
         <v>4085056.8</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>72</v>
       </c>
@@ -16558,7 +16577,7 @@
         <v>4590698.0999999996</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>96</v>
       </c>
@@ -16606,7 +16625,7 @@
         <v>166080207.40000001</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>121</v>
       </c>
@@ -16654,7 +16673,7 @@
         <v>52088973.200000003</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>126</v>
       </c>
@@ -16702,7 +16721,7 @@
         <v>12120747.699999999</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>127</v>
       </c>
@@ -16750,7 +16769,7 @@
         <v>10602633.300000001</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>131</v>
       </c>
@@ -16798,7 +16817,7 @@
         <v>12350494.699999999</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>134</v>
       </c>
@@ -16846,7 +16865,7 @@
         <v>36600148.300000004</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>135</v>
       </c>
@@ -16894,7 +16913,7 @@
         <v>272738571.30000001</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>156</v>
       </c>
@@ -16942,7 +16961,7 @@
         <v>15439713</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>159</v>
       </c>
@@ -16990,7 +17009,7 @@
         <v>31953676.100000001</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>178</v>
       </c>
@@ -17038,7 +17057,7 @@
         <v>83997550.100000009</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>179</v>
       </c>
@@ -17086,7 +17105,7 @@
         <v>7669696.1000000006</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>188</v>
       </c>
@@ -17134,7 +17153,7 @@
         <v>127426529.59999999</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>189</v>
       </c>
@@ -17182,7 +17201,7 @@
         <v>95882579.600000009</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>203</v>
       </c>
@@ -17230,7 +17249,7 @@
         <v>20591688.900000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>204</v>
       </c>
@@ -17278,7 +17297,7 @@
         <v>60843055.899999999</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D339" s="4">
         <f t="shared" ref="D339:N339" si="21">SUM(D313:D338)</f>
         <v>112959705.99999999</v>
@@ -17328,7 +17347,7 @@
         <v>1856689858.9999998</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>47</v>
       </c>
@@ -17345,7 +17364,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="4"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>13</v>
       </c>
@@ -17393,7 +17412,7 @@
         <v>35893529.399999999</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>15</v>
       </c>
@@ -17441,7 +17460,7 @@
         <v>51030397.300000004</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>16</v>
       </c>
@@ -17489,7 +17508,7 @@
         <v>132425774.90000001</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>30</v>
       </c>
@@ -17537,7 +17556,7 @@
         <v>82332791.200000003</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>37</v>
       </c>
@@ -17585,7 +17604,7 @@
         <v>71137020.100000009</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>38</v>
       </c>
@@ -17633,7 +17652,7 @@
         <v>151155573.70000002</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>60</v>
       </c>
@@ -17681,7 +17700,7 @@
         <v>3353004148.5999999</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>67</v>
       </c>
@@ -17729,7 +17748,7 @@
         <v>69938688.300000012</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>69</v>
       </c>
@@ -17777,7 +17796,7 @@
         <v>156677499.60000002</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>71</v>
       </c>
@@ -17825,7 +17844,7 @@
         <v>7120644.6000000006</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>72</v>
       </c>
@@ -17873,7 +17892,7 @@
         <v>11373385.300000001</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>96</v>
       </c>
@@ -17921,7 +17940,7 @@
         <v>1219730035</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>121</v>
       </c>
@@ -17969,7 +17988,7 @@
         <v>112703334.2</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>126</v>
       </c>
@@ -18017,7 +18036,7 @@
         <v>53032260.100000001</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>127</v>
       </c>
@@ -18065,7 +18084,7 @@
         <v>28566788.199999999</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>131</v>
       </c>
@@ -18113,7 +18132,7 @@
         <v>56109356.299999997</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>134</v>
       </c>
@@ -18161,7 +18180,7 @@
         <v>100933286.99999999</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>135</v>
       </c>
@@ -18209,7 +18228,7 @@
         <v>542319697.70000005</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>156</v>
       </c>
@@ -18257,7 +18276,7 @@
         <v>80314773.599999994</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>159</v>
       </c>
@@ -18305,7 +18324,7 @@
         <v>57785018.199999996</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>178</v>
       </c>
@@ -18353,7 +18372,7 @@
         <v>99978123.599999994</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>179</v>
       </c>
@@ -18401,7 +18420,7 @@
         <v>16864847.899999999</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>188</v>
       </c>
@@ -18449,7 +18468,7 @@
         <v>1206765974.5</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>189</v>
       </c>
@@ -18497,7 +18516,7 @@
         <v>566020617.5</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>203</v>
       </c>
@@ -18545,7 +18564,7 @@
         <v>124242502.79999998</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>204</v>
       </c>
@@ -18593,7 +18612,7 @@
         <v>329449417.10000002</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D367" s="4">
         <f t="shared" ref="D367:N367" si="23">SUM(D341:D366)</f>
         <v>825814179.29999995</v>
@@ -18643,7 +18662,7 @@
         <v>8716905486.7000008</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>59</v>
       </c>
@@ -18659,7 +18678,7 @@
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>13</v>
       </c>
@@ -18707,7 +18726,7 @@
         <v>374174.8</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>15</v>
       </c>
@@ -18755,7 +18774,7 @@
         <v>1986033.1</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>16</v>
       </c>
@@ -18803,7 +18822,7 @@
         <v>8437243.5999999996</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>30</v>
       </c>
@@ -18851,7 +18870,7 @@
         <v>2644497.7000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>37</v>
       </c>
@@ -18899,7 +18918,7 @@
         <v>1569300.9000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>38</v>
       </c>
@@ -18947,7 +18966,7 @@
         <v>3589752.9</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>60</v>
       </c>
@@ -18995,7 +19014,7 @@
         <v>50530912.200000003</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>67</v>
       </c>
@@ -19043,7 +19062,7 @@
         <v>1376307.4</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>69</v>
       </c>
@@ -19091,7 +19110,7 @@
         <v>4865436.6000000006</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>71</v>
       </c>
@@ -19139,7 +19158,7 @@
         <v>384565.6</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>72</v>
       </c>
@@ -19187,7 +19206,7 @@
         <v>615758.79999999993</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>96</v>
       </c>
@@ -19235,7 +19254,7 @@
         <v>17868652.799999997</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>121</v>
       </c>
@@ -19283,7 +19302,7 @@
         <v>9013442</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>126</v>
       </c>
@@ -19331,7 +19350,7 @@
         <v>1190742.6000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>127</v>
       </c>
@@ -19379,7 +19398,7 @@
         <v>1726645.9000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>131</v>
       </c>
@@ -19427,7 +19446,7 @@
         <v>874565.9</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>134</v>
       </c>
@@ -19475,7 +19494,7 @@
         <v>9746203.5</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>135</v>
       </c>
@@ -19523,7 +19542,7 @@
         <v>15780795.5</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>156</v>
       </c>
@@ -19571,7 +19590,7 @@
         <v>1316428.4000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>159</v>
       </c>
@@ -19619,7 +19638,7 @@
         <v>3282504.9</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>178</v>
       </c>
@@ -19667,7 +19686,7 @@
         <v>7296498.1000000006</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>179</v>
       </c>
@@ -19715,7 +19734,7 @@
         <v>315226.90000000008</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>188</v>
       </c>
@@ -19763,7 +19782,7 @@
         <v>17650087.299999997</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>189</v>
       </c>
@@ -19811,7 +19830,7 @@
         <v>11601109.299999999</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>203</v>
       </c>
@@ -19859,7 +19878,7 @@
         <v>2887140.0999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>204</v>
       </c>
@@ -19907,7 +19926,7 @@
         <v>5017596.2</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D395" s="4">
         <f t="shared" ref="D395:N395" si="25">SUM(D369:D394)</f>
         <v>31881240.5</v>
@@ -19977,42 +19996,42 @@
       <selection pane="bottomRight" activeCell="Q197" sqref="Q197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
     <col min="14" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="2.88671875" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="24" max="24" width="3.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" customWidth="1"/>
+    <col min="24" max="24" width="3.109375" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="24.7109375" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" customWidth="1"/>
     <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" customWidth="1"/>
+    <col min="31" max="31" width="14.5546875" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="14.88671875" customWidth="1"/>
+    <col min="34" max="34" width="18.109375" customWidth="1"/>
+    <col min="35" max="35" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="25"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -20073,12 +20092,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13</v>
       </c>
@@ -20122,7 +20141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -20166,7 +20185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
@@ -20210,7 +20229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30</v>
       </c>
@@ -20254,7 +20273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>37</v>
       </c>
@@ -20298,7 +20317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38</v>
       </c>
@@ -20342,7 +20361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>60</v>
       </c>
@@ -20386,7 +20405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>67</v>
       </c>
@@ -20430,7 +20449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>69</v>
       </c>
@@ -20474,7 +20493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>71</v>
       </c>
@@ -20518,7 +20537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>72</v>
       </c>
@@ -20562,7 +20581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>96</v>
       </c>
@@ -20606,7 +20625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>121</v>
       </c>
@@ -20650,7 +20669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>126</v>
       </c>
@@ -20694,7 +20713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>127</v>
       </c>
@@ -20738,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>131</v>
       </c>
@@ -20782,7 +20801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>134</v>
       </c>
@@ -20826,7 +20845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>135</v>
       </c>
@@ -20870,7 +20889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>156</v>
       </c>
@@ -20914,7 +20933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>159</v>
       </c>
@@ -20958,7 +20977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>178</v>
       </c>
@@ -21002,7 +21021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>179</v>
       </c>
@@ -21046,7 +21065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>188</v>
       </c>
@@ -21090,7 +21109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>189</v>
       </c>
@@ -21137,7 +21156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>203</v>
       </c>
@@ -21181,7 +21200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>204</v>
       </c>
@@ -21222,7 +21241,7 @@
         <v>0.51807241962076966</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <f t="shared" ref="D29:I29" si="2">SUM(D3:D28)</f>
         <v>2716007.3000000003</v>
@@ -21260,7 +21279,7 @@
         <v>0.33976653427869985</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -21279,7 +21298,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13</v>
       </c>
@@ -21320,7 +21339,7 @@
         <v>0.87542131681284063</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
@@ -21361,7 +21380,7 @@
         <v>0.62073948219738984</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -21402,7 +21421,7 @@
         <v>0.74847451557330258</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -21443,7 +21462,7 @@
         <v>0.29044079797654365</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>37</v>
       </c>
@@ -21484,7 +21503,7 @@
         <v>0.68906489186093456</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>38</v>
       </c>
@@ -21525,7 +21544,7 @@
         <v>0.42407617969254008</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>60</v>
       </c>
@@ -21566,7 +21585,7 @@
         <v>0.81335744149520561</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>67</v>
       </c>
@@ -21607,7 +21626,7 @@
         <v>0.57642277707437761</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>69</v>
       </c>
@@ -21648,7 +21667,7 @@
         <v>0.49044048465724166</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>71</v>
       </c>
@@ -21689,7 +21708,7 @@
         <v>0.73631644200694002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>72</v>
       </c>
@@ -21730,7 +21749,7 @@
         <v>0.42079997554596255</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>96</v>
       </c>
@@ -21771,7 +21790,7 @@
         <v>0.53480502122022833</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>121</v>
       </c>
@@ -21812,7 +21831,7 @@
         <v>0.59361383795633615</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>126</v>
       </c>
@@ -21853,7 +21872,7 @@
         <v>0.45344246281946488</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>127</v>
       </c>
@@ -21894,7 +21913,7 @@
         <v>0.11340535901358438</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>131</v>
       </c>
@@ -21935,7 +21954,7 @@
         <v>0.72410281644048313</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>134</v>
       </c>
@@ -21976,7 +21995,7 @@
         <v>0.57817805250172971</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>135</v>
       </c>
@@ -22017,7 +22036,7 @@
         <v>0.73322042347139549</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>156</v>
       </c>
@@ -22058,7 +22077,7 @@
         <v>0.85820184150248813</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>159</v>
       </c>
@@ -22099,7 +22118,7 @@
         <v>0.70036806489870829</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>178</v>
       </c>
@@ -22140,7 +22159,7 @@
         <v>0.51139235935235872</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>179</v>
       </c>
@@ -22181,7 +22200,7 @@
         <v>0.67669143879623717</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>188</v>
       </c>
@@ -22222,7 +22241,7 @@
         <v>0.55909937874336324</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>189</v>
       </c>
@@ -22263,7 +22282,7 @@
         <v>0.7906048839411276</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>203</v>
       </c>
@@ -22304,7 +22323,7 @@
         <v>0.23827417546002821</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>204</v>
       </c>
@@ -22345,7 +22364,7 @@
         <v>0.49357261919657652</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D57" s="4">
         <f t="shared" ref="D57:I57" si="4">SUM(D31:D56)</f>
         <v>213479328.20000002</v>
@@ -22383,7 +22402,7 @@
         <v>0.65717243908635847</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -22396,7 +22415,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13</v>
       </c>
@@ -22468,7 +22487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>15</v>
       </c>
@@ -22540,7 +22559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>16</v>
       </c>
@@ -22612,7 +22631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>30</v>
       </c>
@@ -22684,7 +22703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>37</v>
       </c>
@@ -22749,7 +22768,7 @@
         <v>26572081.415999997</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>38</v>
       </c>
@@ -22814,7 +22833,7 @@
         <v>22230775.066999998</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>60</v>
       </c>
@@ -22879,7 +22898,7 @@
         <v>32549951.310000002</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>67</v>
       </c>
@@ -22944,7 +22963,7 @@
         <v>4637645.3130000001</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>69</v>
       </c>
@@ -23009,7 +23028,7 @@
         <v>13552088.086999999</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>71</v>
       </c>
@@ -23074,7 +23093,7 @@
         <v>959378.25800000015</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>72</v>
       </c>
@@ -23139,7 +23158,7 @@
         <v>927413.40699999989</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>96</v>
       </c>
@@ -23204,7 +23223,7 @@
         <v>13438545.35</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>121</v>
       </c>
@@ -23269,7 +23288,7 @@
         <v>7989569.6250000009</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>126</v>
       </c>
@@ -23334,7 +23353,7 @@
         <v>11412261.619999999</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>127</v>
       </c>
@@ -23399,7 +23418,7 @@
         <v>618010.66799999995</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>131</v>
       </c>
@@ -23464,7 +23483,7 @@
         <v>11975879.496999998</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>134</v>
       </c>
@@ -23529,7 +23548,7 @@
         <v>12129141.738</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>135</v>
       </c>
@@ -23594,7 +23613,7 @@
         <v>279028586.10100001</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>156</v>
       </c>
@@ -23659,7 +23678,7 @@
         <v>23673297.193893939</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>159</v>
       </c>
@@ -23724,7 +23743,7 @@
         <v>5473699.9460000005</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>178</v>
       </c>
@@ -23789,7 +23808,7 @@
         <v>7504919.5350000001</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>179</v>
       </c>
@@ -23854,7 +23873,7 @@
         <v>3979649.8560000001</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>188</v>
       </c>
@@ -23919,7 +23938,7 @@
         <v>54782790.170018479</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>189</v>
       </c>
@@ -23984,7 +24003,7 @@
         <v>72715041.031032756</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>203</v>
       </c>
@@ -24049,7 +24068,7 @@
         <v>1091831.0109999999</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>204</v>
       </c>
@@ -24114,7 +24133,7 @@
         <v>2729319.3249999993</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D85" s="4">
         <f t="shared" ref="D85:I85" si="11">SUM(D59:D84)</f>
         <v>17332820498</v>
@@ -24172,7 +24191,7 @@
       </c>
       <c r="Y85" s="21"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -24185,7 +24204,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>13</v>
       </c>
@@ -24229,7 +24248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -24273,7 +24292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>16</v>
       </c>
@@ -24317,7 +24336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>30</v>
       </c>
@@ -24361,7 +24380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>37</v>
       </c>
@@ -24405,7 +24424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>38</v>
       </c>
@@ -24449,7 +24468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>60</v>
       </c>
@@ -24494,7 +24513,7 @@
         <v>10627028.699999999</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>67</v>
       </c>
@@ -24539,7 +24558,7 @@
         <v>1024736</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>69</v>
       </c>
@@ -24583,7 +24602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>71</v>
       </c>
@@ -24627,7 +24646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>72</v>
       </c>
@@ -24671,7 +24690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -24716,7 +24735,7 @@
         <v>3072279.1000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>121</v>
       </c>
@@ -24761,7 +24780,7 @@
         <v>3232180.3</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>126</v>
       </c>
@@ -24805,7 +24824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>127</v>
       </c>
@@ -24849,7 +24868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>131</v>
       </c>
@@ -24893,7 +24912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>134</v>
       </c>
@@ -24937,7 +24956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>135</v>
       </c>
@@ -24981,7 +25000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>156</v>
       </c>
@@ -25025,7 +25044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>159</v>
       </c>
@@ -25070,7 +25089,7 @@
         <v>1959932.2</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>178</v>
       </c>
@@ -25114,7 +25133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>179</v>
       </c>
@@ -25158,7 +25177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>188</v>
       </c>
@@ -25202,7 +25221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>189</v>
       </c>
@@ -25246,7 +25265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>203</v>
       </c>
@@ -25291,7 +25310,7 @@
         <v>439573.8</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>204</v>
       </c>
@@ -25335,7 +25354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D113" s="4">
         <f t="shared" ref="D113:I113" si="14">SUM(D87:D112)</f>
         <v>55914703.500000007</v>
@@ -25377,7 +25396,7 @@
         <v>20355730.100000001</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -25393,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>13</v>
       </c>
@@ -25461,7 +25480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>15</v>
       </c>
@@ -25529,7 +25548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>16</v>
       </c>
@@ -25597,7 +25616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>30</v>
       </c>
@@ -25665,7 +25684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>37</v>
       </c>
@@ -25726,7 +25745,7 @@
         <v>1078064.7792</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>38</v>
       </c>
@@ -25787,7 +25806,7 @@
         <v>1826027.6676000003</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>60</v>
       </c>
@@ -25848,7 +25867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>67</v>
       </c>
@@ -25909,7 +25928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>69</v>
       </c>
@@ -25970,7 +25989,7 @@
         <v>849067.73520000011</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>71</v>
       </c>
@@ -26031,7 +26050,7 @@
         <v>50400.307199999988</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>72</v>
       </c>
@@ -26092,7 +26111,7 @@
         <v>63348.706800000007</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>96</v>
       </c>
@@ -26153,7 +26172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>121</v>
       </c>
@@ -26214,7 +26233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -26275,7 +26294,7 @@
         <v>1918446.8219999999</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -26336,7 +26355,7 @@
         <v>16553.641199999998</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>131</v>
       </c>
@@ -26397,7 +26416,7 @@
         <v>3058932.4356000004</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>134</v>
       </c>
@@ -26458,7 +26477,7 @@
         <v>13541.0136</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>135</v>
       </c>
@@ -26519,7 +26538,7 @@
         <v>10459435.6044</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>156</v>
       </c>
@@ -26580,7 +26599,7 @@
         <v>294394.15824992792</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>159</v>
       </c>
@@ -26641,7 +26660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>178</v>
       </c>
@@ -26702,7 +26721,7 @@
         <v>273508.89840000001</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>179</v>
       </c>
@@ -26763,7 +26782,7 @@
         <v>905190.4319999998</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>188</v>
       </c>
@@ -26824,7 +26843,7 @@
         <v>10763804.060610153</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>189</v>
       </c>
@@ -26885,7 +26904,7 @@
         <v>3853944.123903166</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>203</v>
       </c>
@@ -26946,7 +26965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>204</v>
       </c>
@@ -27007,7 +27026,7 @@
         <v>2305375.4220000003</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D141" s="4">
         <f t="shared" ref="D141:I141" si="18">SUM(D115:D140)</f>
         <v>1419383079.0999999</v>
@@ -27065,7 +27084,7 @@
         <v>40714243.803521946</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -27078,7 +27097,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>13</v>
       </c>
@@ -27126,7 +27145,7 @@
         <v>219242.12812266656</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>15</v>
       </c>
@@ -27174,7 +27193,7 @@
         <v>682268.70000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>16</v>
       </c>
@@ -27222,7 +27241,7 @@
         <v>425214.89999999991</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>30</v>
       </c>
@@ -27270,7 +27289,7 @@
         <v>57250.5</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>37</v>
       </c>
@@ -27318,7 +27337,7 @@
         <v>283476.7</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>38</v>
       </c>
@@ -27366,7 +27385,7 @@
         <v>514061.39999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>60</v>
       </c>
@@ -27414,7 +27433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>67</v>
       </c>
@@ -27462,7 +27481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>69</v>
       </c>
@@ -27510,7 +27529,7 @@
         <v>324289.09999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>71</v>
       </c>
@@ -27558,7 +27577,7 @@
         <v>27622.9</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>72</v>
       </c>
@@ -27606,7 +27625,7 @@
         <v>15060.299999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>96</v>
       </c>
@@ -27654,7 +27673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>121</v>
       </c>
@@ -27702,7 +27721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>126</v>
       </c>
@@ -27750,7 +27769,7 @@
         <v>1581089.3999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>127</v>
       </c>
@@ -27798,7 +27817,7 @@
         <v>15656.2</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>131</v>
       </c>
@@ -27846,7 +27865,7 @@
         <v>1595398.2000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>134</v>
       </c>
@@ -27894,7 +27913,7 @@
         <v>7759.2</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>135</v>
       </c>
@@ -27942,7 +27961,7 @@
         <v>3619659.5000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>156</v>
       </c>
@@ -27990,7 +28009,7 @@
         <v>204559.22182711121</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>159</v>
       </c>
@@ -28038,7 +28057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>178</v>
       </c>
@@ -28086,7 +28105,7 @@
         <v>158565.59999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>179</v>
       </c>
@@ -28134,7 +28153,7 @@
         <v>470157.39999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>188</v>
       </c>
@@ -28182,7 +28201,7 @@
         <v>5042706.1336752716</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>189</v>
       </c>
@@ -28230,7 +28249,7 @@
         <v>1480861.623111374</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>203</v>
       </c>
@@ -28278,7 +28297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>204</v>
       </c>
@@ -28326,7 +28345,7 @@
         <v>1637959.9000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D169" s="4">
         <f t="shared" ref="D169:I169" si="21">SUM(D143:D168)</f>
         <v>8103919.5999999996</v>
@@ -28372,7 +28391,7 @@
         <v>18362859.006736424</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>50</v>
       </c>
@@ -28385,7 +28404,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="19"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>13</v>
       </c>
@@ -28433,7 +28452,7 @@
         <v>235017.02989161911</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>15</v>
       </c>
@@ -28481,7 +28500,7 @@
         <v>785851.10000000009</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>16</v>
       </c>
@@ -28529,7 +28548,7 @@
         <v>721615.50000000012</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>30</v>
       </c>
@@ -28577,7 +28596,7 @@
         <v>12874.6</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>37</v>
       </c>
@@ -28625,7 +28644,7 @@
         <v>634143.39999999991</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>38</v>
       </c>
@@ -28673,7 +28692,7 @@
         <v>1073895</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>60</v>
       </c>
@@ -28721,7 +28740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>67</v>
       </c>
@@ -28769,7 +28788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>69</v>
       </c>
@@ -28817,7 +28836,7 @@
         <v>499416.60000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>71</v>
       </c>
@@ -28865,7 +28884,7 @@
         <v>29642.6</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>72</v>
       </c>
@@ -28913,7 +28932,7 @@
         <v>37261.700000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>96</v>
       </c>
@@ -28961,7 +28980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>121</v>
       </c>
@@ -29009,7 +29028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>126</v>
       </c>
@@ -29057,7 +29076,7 @@
         <v>1127724.7</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>127</v>
       </c>
@@ -29105,7 +29124,7 @@
         <v>9743.4000000000015</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>131</v>
       </c>
@@ -29153,7 +29172,7 @@
         <v>1799343.4999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>134</v>
       </c>
@@ -29201,7 +29220,7 @@
         <v>7952.8</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>135</v>
       </c>
@@ -29249,7 +29268,7 @@
         <v>6152750.7000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>156</v>
       </c>
@@ -29297,7 +29316,7 @@
         <v>173092.82082535568</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>159</v>
       </c>
@@ -29345,7 +29364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>178</v>
       </c>
@@ -29393,7 +29412,7 @@
         <v>160944.4</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>179</v>
       </c>
@@ -29441,7 +29460,7 @@
         <v>532391.20000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>188</v>
       </c>
@@ -29489,7 +29508,7 @@
         <v>6332436.4175129393</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>189</v>
       </c>
@@ -29537,7 +29556,7 @@
         <v>2267066.9252638314</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>203</v>
       </c>
@@ -29585,7 +29604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>204</v>
       </c>
@@ -29633,7 +29652,7 @@
         <v>1356481.5999999996</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D197" s="4">
         <f t="shared" ref="D197:I197" si="24">SUM(D171:D196)</f>
         <v>10019607.300000001</v>
@@ -29679,7 +29698,7 @@
         <v>23949645.993493743</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>51</v>
       </c>
@@ -29692,7 +29711,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>13</v>
       </c>
@@ -29733,7 +29752,7 @@
         <v>0.64138117562206998</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>15</v>
       </c>
@@ -29774,7 +29793,7 @@
         <v>0.40553312986117945</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>16</v>
       </c>
@@ -29815,7 +29834,7 @@
         <v>0.54263554900181488</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>30</v>
       </c>
@@ -29856,7 +29875,7 @@
         <v>0.33824561403508774</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>37</v>
       </c>
@@ -29897,7 +29916,7 @@
         <v>0.50972513864211477</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>38</v>
       </c>
@@ -29938,7 +29957,7 @@
         <v>0.55591698847460047</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>60</v>
       </c>
@@ -29979,7 +29998,7 @@
         <v>0.69943468079570437</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>67</v>
       </c>
@@ -30020,7 +30039,7 @@
         <v>0.5481582280647701</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>69</v>
       </c>
@@ -30061,7 +30080,7 @@
         <v>0.6642343100438326</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>71</v>
       </c>
@@ -30102,7 +30121,7 @@
         <v>0.42718151413803584</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>72</v>
       </c>
@@ -30143,7 +30162,7 @@
         <v>0.54039474915032271</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>96</v>
       </c>
@@ -30184,7 +30203,7 @@
         <v>0.78797938896318254</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>121</v>
       </c>
@@ -30225,7 +30244,7 @@
         <v>0.50880463534450182</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>126</v>
       </c>
@@ -30266,7 +30285,7 @@
         <v>0.58653509576117224</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>127</v>
       </c>
@@ -30307,7 +30326,7 @@
         <v>0.917082917082917</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>131</v>
       </c>
@@ -30348,7 +30367,7 @@
         <v>0.7869368345600446</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>134</v>
       </c>
@@ -30389,7 +30408,7 @@
         <v>0.7172899959785205</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>135</v>
       </c>
@@ -30430,7 +30449,7 @@
         <v>0.58009116242898195</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>156</v>
       </c>
@@ -30471,7 +30490,7 @@
         <v>0.79233214143822006</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>159</v>
       </c>
@@ -30512,7 +30531,7 @@
         <v>0.63808406294190212</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>178</v>
       </c>
@@ -30553,7 +30572,7 @@
         <v>0.60805293537941707</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>179</v>
       </c>
@@ -30594,7 +30613,7 @@
         <v>0.50888532967242484</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>188</v>
       </c>
@@ -30635,7 +30654,7 @@
         <v>0.7675098768746883</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>189</v>
       </c>
@@ -30676,7 +30695,7 @@
         <v>0.60836015148551836</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>203</v>
       </c>
@@ -30717,7 +30736,7 @@
         <v>0.53627210365192668</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>204</v>
       </c>
@@ -30758,7 +30777,7 @@
         <v>0.74277294201643662</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D225" s="4">
         <f t="shared" ref="D225:I225" si="26">SUM(D199:D224)</f>
         <v>23893.399999999998</v>
@@ -30797,7 +30816,7 @@
       </c>
       <c r="Q225" s="4"/>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>44</v>
       </c>
@@ -30810,7 +30829,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="19"/>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>13</v>
       </c>
@@ -30878,7 +30897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>15</v>
       </c>
@@ -30946,7 +30965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>16</v>
       </c>
@@ -31014,7 +31033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>30</v>
       </c>
@@ -31082,7 +31101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>37</v>
       </c>
@@ -31143,7 +31162,7 @@
         <v>363654.23039999994</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>38</v>
       </c>
@@ -31204,7 +31223,7 @@
         <v>2233370.1587999999</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>60</v>
       </c>
@@ -31265,7 +31284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>67</v>
       </c>
@@ -31326,7 +31345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>69</v>
       </c>
@@ -31387,7 +31406,7 @@
         <v>1339007.3771999998</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>71</v>
       </c>
@@ -31448,7 +31467,7 @@
         <v>93972.6924</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>72</v>
       </c>
@@ -31509,7 +31528,7 @@
         <v>105604.4736</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>96</v>
       </c>
@@ -31570,7 +31589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>121</v>
       </c>
@@ -31631,7 +31650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>126</v>
       </c>
@@ -31692,7 +31711,7 @@
         <v>280141.81319999998</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>127</v>
       </c>
@@ -31753,7 +31772,7 @@
         <v>243902.91960000002</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>131</v>
       </c>
@@ -31814,7 +31833,7 @@
         <v>284800.2132</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>134</v>
       </c>
@@ -31875,7 +31894,7 @@
         <v>841947.76439999987</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>135</v>
       </c>
@@ -31936,7 +31955,7 @@
         <v>6284612.8295999998</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>156</v>
       </c>
@@ -31997,7 +32016,7 @@
         <v>700531.3207240128</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>159</v>
       </c>
@@ -32058,7 +32077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>178</v>
       </c>
@@ -32119,7 +32138,7 @@
         <v>1932283.2000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>179</v>
       </c>
@@ -32180,7 +32199,7 @@
         <v>177050.11919999999</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>188</v>
       </c>
@@ -32241,7 +32260,7 @@
         <v>5042938.4402401103</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>189</v>
       </c>
@@ -32302,7 +32321,7 @@
         <v>4127258.7848472344</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>203</v>
       </c>
@@ -32363,7 +32382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>204</v>
       </c>
@@ -32424,7 +32443,7 @@
         <v>1399632.8891999999</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D253" s="4">
         <f t="shared" ref="D253:I253" si="30">SUM(D227:D252)</f>
         <v>933652797.79999995</v>
@@ -32481,7 +32500,7 @@
         <v>28155702.310816329</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>45</v>
       </c>
@@ -32494,7 +32513,7 @@
       <c r="J254" s="4"/>
       <c r="K254" s="19"/>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>13</v>
       </c>
@@ -32559,7 +32578,7 @@
         <v>9942772.2037416287</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>15</v>
       </c>
@@ -32624,7 +32643,7 @@
         <v>4142096.165</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>16</v>
       </c>
@@ -32689,7 +32708,7 @@
         <v>1574236.929</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>30</v>
       </c>
@@ -32754,7 +32773,7 @@
         <v>15659105.297741627</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>37</v>
       </c>
@@ -32815,7 +32834,7 @@
         <v>259618.66560000001</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>38</v>
       </c>
@@ -32876,7 +32895,7 @@
         <v>547788.03960000002</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>60</v>
       </c>
@@ -32937,7 +32956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>67</v>
       </c>
@@ -32998,7 +33017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>69</v>
       </c>
@@ -33059,7 +33078,7 @@
         <v>568299.9804</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>71</v>
       </c>
@@ -33120,7 +33139,7 @@
         <v>25805.218799999999</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>72</v>
       </c>
@@ -33181,7 +33200,7 @@
         <v>41217.1296</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>96</v>
       </c>
@@ -33242,7 +33261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>121</v>
       </c>
@@ -33303,7 +33322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>126</v>
       </c>
@@ -33364,7 +33383,7 @@
         <v>193012.17600000001</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>127</v>
       </c>
@@ -33425,7 +33444,7 @@
         <v>103526.0232</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>131</v>
       </c>
@@ -33486,7 +33505,7 @@
         <v>203771.5092</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>134</v>
       </c>
@@ -33547,7 +33566,7 @@
         <v>365782.61519999994</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>135</v>
       </c>
@@ -33608,7 +33627,7 @@
         <v>1969354.3848000001</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>156</v>
       </c>
@@ -33669,7 +33688,7 @@
         <v>569267.88292937074</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>159</v>
       </c>
@@ -33730,7 +33749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>178</v>
       </c>
@@ -33791,7 +33810,7 @@
         <v>362321.17080000002</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>179</v>
       </c>
@@ -33852,7 +33871,7 @@
         <v>61346.120400000014</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>188</v>
       </c>
@@ -33913,7 +33932,7 @@
         <v>7372350.142626863</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>189</v>
       </c>
@@ -33974,7 +33993,7 @@
         <v>3737451.8930585231</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>203</v>
       </c>
@@ -34035,7 +34054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>204</v>
       </c>
@@ -34096,7 +34115,7 @@
         <v>1193926.1340000001</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D281" s="4">
         <f t="shared" ref="D281:I281" si="35">SUM(D255:D280)</f>
         <v>530228498.70000005</v>
@@ -34153,7 +34172,7 @@
         <v>18790926.357289955</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>46</v>
       </c>
@@ -34166,7 +34185,7 @@
       <c r="J282" s="4"/>
       <c r="K282" s="19"/>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>13</v>
       </c>
@@ -34214,7 +34233,7 @@
         <v>13131863.050414478</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>15</v>
       </c>
@@ -34262,7 +34281,7 @@
         <v>17073050.500000004</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>16</v>
       </c>
@@ -34310,7 +34329,7 @@
         <v>78780885.699999988</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>30</v>
       </c>
@@ -34358,7 +34377,7 @@
         <v>8602007</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>37</v>
       </c>
@@ -34406,7 +34425,7 @@
         <v>15808306.899999999</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>38</v>
       </c>
@@ -34454,7 +34473,7 @@
         <v>97086217.199999988</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>60</v>
       </c>
@@ -34502,7 +34521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>67</v>
       </c>
@@ -34550,7 +34569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>69</v>
       </c>
@@ -34598,7 +34617,7 @@
         <v>58207636.399999991</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>71</v>
       </c>
@@ -34646,7 +34665,7 @@
         <v>4085056.8</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>72</v>
       </c>
@@ -34694,7 +34713,7 @@
         <v>4590698.0999999996</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>96</v>
       </c>
@@ -34742,7 +34761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>121</v>
       </c>
@@ -34790,7 +34809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>126</v>
       </c>
@@ -34838,7 +34857,7 @@
         <v>12177963.199999999</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>127</v>
       </c>
@@ -34886,7 +34905,7 @@
         <v>10602633.300000001</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>131</v>
       </c>
@@ -34934,7 +34953,7 @@
         <v>12380464.699999999</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>134</v>
       </c>
@@ -34982,7 +35001,7 @@
         <v>36600148.300000004</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>135</v>
       </c>
@@ -35030,7 +35049,7 @@
         <v>273196425.69999999</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>156</v>
       </c>
@@ -35078,7 +35097,7 @@
         <v>30452597.460334431</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>159</v>
       </c>
@@ -35126,7 +35145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>178</v>
       </c>
@@ -35174,7 +35193,7 @@
         <v>83997550.100000009</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>179</v>
       </c>
@@ -35222,7 +35241,7 @@
         <v>7696491.1000000006</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>188</v>
       </c>
@@ -35270,7 +35289,7 @@
         <v>219220041.6200093</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>189</v>
       </c>
@@ -35318,7 +35337,7 @@
         <v>179414677.77060285</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>203</v>
       </c>
@@ -35366,7 +35385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>204</v>
       </c>
@@ -35414,7 +35433,7 @@
         <v>60843055.899999999</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D309" s="4">
         <f t="shared" ref="D309:I309" si="37">SUM(D283:D308)</f>
         <v>487038557.60000002</v>
@@ -35460,7 +35479,7 @@
         <v>1223947770.8013613</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>47</v>
       </c>
@@ -35473,7 +35492,7 @@
       <c r="J310" s="4"/>
       <c r="K310" s="19"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>13</v>
       </c>
@@ -35521,7 +35540,7 @@
         <v>69607238.922933087</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>15</v>
       </c>
@@ -35569,7 +35588,7 @@
         <v>51199269.300000004</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>16</v>
       </c>
@@ -35617,7 +35636,7 @@
         <v>132425774.90000001</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>30</v>
       </c>
@@ -35665,7 +35684,7 @@
         <v>82332791.200000003</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>37</v>
       </c>
@@ -35713,7 +35732,7 @@
         <v>71638754.000000015</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>38</v>
       </c>
@@ -35761,7 +35780,7 @@
         <v>151155573.70000002</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>60</v>
       </c>
@@ -35809,7 +35828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>67</v>
       </c>
@@ -35857,7 +35876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>69</v>
       </c>
@@ -35905,7 +35924,7 @@
         <v>156815784.00000003</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>71</v>
       </c>
@@ -35953,7 +35972,7 @@
         <v>7120644.6000000006</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>72</v>
       </c>
@@ -36001,7 +36020,7 @@
         <v>11373385.300000001</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>96</v>
       </c>
@@ -36049,7 +36068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>121</v>
       </c>
@@ -36097,7 +36116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>126</v>
       </c>
@@ -36145,7 +36164,7 @@
         <v>53259425.5</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>127</v>
       </c>
@@ -36193,7 +36212,7 @@
         <v>28566788.199999999</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>131</v>
       </c>
@@ -36241,7 +36260,7 @@
         <v>56228347.5</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>134</v>
       </c>
@@ -36289,7 +36308,7 @@
         <v>100933286.99999999</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>135</v>
       </c>
@@ -36337,7 +36356,7 @@
         <v>543419585.80000007</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>156</v>
       </c>
@@ -36385,7 +36404,7 @@
         <v>157082677.5441142</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>159</v>
       </c>
@@ -36433,7 +36452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>178</v>
       </c>
@@ -36481,7 +36500,7 @@
         <v>99978123.599999994</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>179</v>
       </c>
@@ -36529,7 +36548,7 @@
         <v>16927735.799999997</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>188</v>
       </c>
@@ -36577,7 +36596,7 @@
         <v>2034311818.3855717</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>189</v>
       </c>
@@ -36625,7 +36644,7 @@
         <v>1031304705.0215435</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>203</v>
       </c>
@@ -36673,7 +36692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>204</v>
       </c>
@@ -36721,7 +36740,7 @@
         <v>329449417.10000002</v>
       </c>
     </row>
-    <row r="337" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:35" x14ac:dyDescent="0.3">
       <c r="D337" s="4">
         <f t="shared" ref="D337:I337" si="40">SUM(D311:D336)</f>
         <v>1755722976</v>
@@ -36767,7 +36786,7 @@
         <v>5185131127.3741627</v>
       </c>
     </row>
-    <row r="338" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>59</v>
       </c>
@@ -36779,7 +36798,7 @@
       <c r="I338" s="2"/>
       <c r="K338" s="19"/>
     </row>
-    <row r="339" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>13</v>
       </c>
@@ -36827,16 +36846,16 @@
         <v>743917.65898414317</v>
       </c>
       <c r="AB339" s="29"/>
-      <c r="AC339" s="90" t="s">
+      <c r="AC339" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="AD339" s="91"/>
-      <c r="AE339" s="91"/>
-      <c r="AF339" s="91"/>
-      <c r="AG339" s="91"/>
-      <c r="AH339" s="92"/>
-    </row>
-    <row r="340" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD339" s="98"/>
+      <c r="AE339" s="98"/>
+      <c r="AF339" s="98"/>
+      <c r="AG339" s="98"/>
+      <c r="AH339" s="99"/>
+    </row>
+    <row r="340" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>15</v>
       </c>
@@ -36903,7 +36922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:35" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:35" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>16</v>
       </c>
@@ -36970,7 +36989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="342" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>30</v>
       </c>
@@ -37017,25 +37036,25 @@
         <f>(H342+K342)</f>
         <v>2644497.7000000002</v>
       </c>
-      <c r="AB342" s="88" t="s">
+      <c r="AB342" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="AC342" s="86">
+      <c r="AC342" s="93">
         <v>4834329</v>
       </c>
-      <c r="AD342" s="86">
+      <c r="AD342" s="93">
         <v>197901</v>
       </c>
-      <c r="AE342" s="86">
+      <c r="AE342" s="93">
         <v>3520593</v>
       </c>
-      <c r="AF342" s="86">
+      <c r="AF342" s="93">
         <v>757781</v>
       </c>
-      <c r="AG342" s="86">
+      <c r="AG342" s="93">
         <v>404216</v>
       </c>
-      <c r="AH342" s="86">
+      <c r="AH342" s="93">
         <v>690546</v>
       </c>
       <c r="AI342" s="5">
@@ -37043,7 +37062,7 @@
         <v>10405366</v>
       </c>
     </row>
-    <row r="343" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>37</v>
       </c>
@@ -37090,15 +37109,15 @@
         <f>(H343+K343)</f>
         <v>1577048.8</v>
       </c>
-      <c r="AB343" s="89"/>
-      <c r="AC343" s="87"/>
-      <c r="AD343" s="87"/>
-      <c r="AE343" s="87"/>
-      <c r="AF343" s="87"/>
-      <c r="AG343" s="87"/>
-      <c r="AH343" s="87"/>
-    </row>
-    <row r="344" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB343" s="96"/>
+      <c r="AC343" s="94"/>
+      <c r="AD343" s="94"/>
+      <c r="AE343" s="94"/>
+      <c r="AF343" s="94"/>
+      <c r="AG343" s="94"/>
+      <c r="AH343" s="94"/>
+    </row>
+    <row r="344" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>38</v>
       </c>
@@ -37145,25 +37164,25 @@
         <f>(H344+K344)</f>
         <v>3589752.9</v>
       </c>
-      <c r="AB344" s="88" t="s">
+      <c r="AB344" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="AC344" s="86">
+      <c r="AC344" s="93">
         <v>32549951</v>
       </c>
-      <c r="AD344" s="86">
+      <c r="AD344" s="93">
         <v>4637645</v>
       </c>
-      <c r="AE344" s="86">
+      <c r="AE344" s="93">
         <v>13438545</v>
       </c>
-      <c r="AF344" s="86">
+      <c r="AF344" s="93">
         <v>7989570</v>
       </c>
-      <c r="AG344" s="86">
+      <c r="AG344" s="93">
         <v>5473700</v>
       </c>
-      <c r="AH344" s="86">
+      <c r="AH344" s="93">
         <v>1091831</v>
       </c>
       <c r="AI344" s="5">
@@ -37171,7 +37190,7 @@
         <v>65181242</v>
       </c>
     </row>
-    <row r="345" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>60</v>
       </c>
@@ -37218,15 +37237,15 @@
       <c r="U345" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB345" s="89"/>
-      <c r="AC345" s="87"/>
-      <c r="AD345" s="87"/>
-      <c r="AE345" s="87"/>
-      <c r="AF345" s="87"/>
-      <c r="AG345" s="87"/>
-      <c r="AH345" s="87"/>
-    </row>
-    <row r="346" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB345" s="96"/>
+      <c r="AC345" s="94"/>
+      <c r="AD345" s="94"/>
+      <c r="AE345" s="94"/>
+      <c r="AF345" s="94"/>
+      <c r="AG345" s="94"/>
+      <c r="AH345" s="94"/>
+    </row>
+    <row r="346" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>67</v>
       </c>
@@ -37273,25 +37292,25 @@
       <c r="U346" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB346" s="88" t="s">
+      <c r="AB346" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="AC346" s="86">
+      <c r="AC346" s="93">
         <v>9593557</v>
       </c>
-      <c r="AD346" s="86">
+      <c r="AD346" s="93">
         <v>118731</v>
       </c>
-      <c r="AE346" s="86">
+      <c r="AE346" s="93">
         <v>2199991</v>
       </c>
-      <c r="AF346" s="86">
+      <c r="AF346" s="93">
         <v>792392</v>
       </c>
-      <c r="AG346" s="86">
+      <c r="AG346" s="93">
         <v>545728</v>
       </c>
-      <c r="AH346" s="86">
+      <c r="AH346" s="93">
         <v>43968</v>
       </c>
       <c r="AI346" s="5">
@@ -37299,7 +37318,7 @@
         <v>13294367</v>
       </c>
     </row>
-    <row r="347" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>69</v>
       </c>
@@ -37346,15 +37365,15 @@
         <f>(H347+K347)</f>
         <v>4870431.4000000004</v>
       </c>
-      <c r="AB347" s="89"/>
-      <c r="AC347" s="87"/>
-      <c r="AD347" s="87"/>
-      <c r="AE347" s="87"/>
-      <c r="AF347" s="87"/>
-      <c r="AG347" s="87"/>
-      <c r="AH347" s="87"/>
-    </row>
-    <row r="348" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB347" s="96"/>
+      <c r="AC347" s="94"/>
+      <c r="AD347" s="94"/>
+      <c r="AE347" s="94"/>
+      <c r="AF347" s="94"/>
+      <c r="AG347" s="94"/>
+      <c r="AH347" s="94"/>
+    </row>
+    <row r="348" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>71</v>
       </c>
@@ -37401,25 +37420,25 @@
         <f>(H348+K348)</f>
         <v>384565.6</v>
       </c>
-      <c r="AB348" s="88" t="s">
+      <c r="AB348" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="AC348" s="86">
+      <c r="AC348" s="93">
         <v>8834923</v>
       </c>
-      <c r="AD348" s="86">
+      <c r="AD348" s="93">
         <v>32056</v>
       </c>
-      <c r="AE348" s="86">
+      <c r="AE348" s="93">
         <v>2116609</v>
       </c>
-      <c r="AF348" s="86">
+      <c r="AF348" s="93">
         <v>194450</v>
       </c>
-      <c r="AG348" s="86">
+      <c r="AG348" s="93">
         <v>133758</v>
       </c>
-      <c r="AH348" s="86">
+      <c r="AH348" s="93">
         <v>65096</v>
       </c>
       <c r="AI348" s="5">
@@ -37427,7 +37446,7 @@
         <v>11376892</v>
       </c>
     </row>
-    <row r="349" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>72</v>
       </c>
@@ -37474,15 +37493,15 @@
         <f>(H349+K349)</f>
         <v>615758.79999999993</v>
       </c>
-      <c r="AB349" s="89"/>
-      <c r="AC349" s="87"/>
-      <c r="AD349" s="87"/>
-      <c r="AE349" s="87"/>
-      <c r="AF349" s="87"/>
-      <c r="AG349" s="87"/>
-      <c r="AH349" s="87"/>
-    </row>
-    <row r="350" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB349" s="96"/>
+      <c r="AC349" s="94"/>
+      <c r="AD349" s="94"/>
+      <c r="AE349" s="94"/>
+      <c r="AF349" s="94"/>
+      <c r="AG349" s="94"/>
+      <c r="AH349" s="94"/>
+    </row>
+    <row r="350" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>96</v>
       </c>
@@ -37561,7 +37580,7 @@
         <v>100257867</v>
       </c>
     </row>
-    <row r="351" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>121</v>
       </c>
@@ -37609,7 +37628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>126</v>
       </c>
@@ -37657,7 +37676,7 @@
         <v>1193128.8</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>127</v>
       </c>
@@ -37705,7 +37724,7 @@
         <v>1726645.9000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>131</v>
       </c>
@@ -37753,7 +37772,7 @@
         <v>874569.6</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>134</v>
       </c>
@@ -37801,7 +37820,7 @@
         <v>9746203.5</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>135</v>
       </c>
@@ -37849,7 +37868,7 @@
         <v>15784415.1</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>156</v>
       </c>
@@ -37897,7 +37916,7 @@
         <v>2372628.2978749927</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>159</v>
       </c>
@@ -37945,7 +37964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>178</v>
       </c>
@@ -37993,7 +38012,7 @@
         <v>7296498.1000000006</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>179</v>
       </c>
@@ -38041,7 +38060,7 @@
         <v>315709.60000000009</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>188</v>
       </c>
@@ -38089,7 +38108,7 @@
         <v>28621267.021026567</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>189</v>
       </c>
@@ -38137,7 +38156,7 @@
         <v>20689590.98282361</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>203</v>
       </c>
@@ -38185,7 +38204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>204</v>
       </c>
@@ -38233,7 +38252,7 @@
         <v>5017596.2</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D365" s="4">
         <f t="shared" ref="D365:I365" si="43">SUM(D339:D364)</f>
         <v>60129403.399999999</v>
@@ -38279,7 +38298,7 @@
         <v>118490552.36070932</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
       <c r="S367" s="26">
         <f>S85+S141+S253+S281</f>
         <v>132795882.26880002</v>
@@ -38333,44 +38352,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AA0783-AB61-4684-999D-E074CA932E55}">
   <dimension ref="A2:AB42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="44" customWidth="1"/>
-    <col min="18" max="19" width="19.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="16" width="18.6640625" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="44" customWidth="1"/>
+    <col min="18" max="19" width="19.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" customWidth="1"/>
     <col min="23" max="23" width="7" style="38" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" style="50" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="J2" s="33">
         <v>1661734</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>92</v>
       </c>
@@ -38451,7 +38470,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -38470,7 +38489,7 @@
       </c>
       <c r="Z4" s="53"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>2020</v>
       </c>
@@ -38528,7 +38547,7 @@
         <v>-60000000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>2021</v>
       </c>
@@ -38610,7 +38629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>2022</v>
       </c>
@@ -38698,7 +38717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>2023</v>
       </c>
@@ -38780,7 +38799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>2024</v>
       </c>
@@ -38862,7 +38881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>2025</v>
       </c>
@@ -38948,7 +38967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>2026</v>
       </c>
@@ -39034,7 +39053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>2027</v>
       </c>
@@ -39121,7 +39140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>2028</v>
       </c>
@@ -39203,7 +39222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>2029</v>
       </c>
@@ -39285,7 +39304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>2030</v>
       </c>
@@ -39367,7 +39386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>2031</v>
       </c>
@@ -39427,7 +39446,7 @@
       <c r="X16" s="21"/>
       <c r="AA16" s="20"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>2032</v>
       </c>
@@ -39486,7 +39505,7 @@
       </c>
       <c r="X17" s="21"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>2033</v>
       </c>
@@ -39545,7 +39564,7 @@
       </c>
       <c r="X18" s="21"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>2034</v>
       </c>
@@ -39604,7 +39623,7 @@
       </c>
       <c r="X19" s="21"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>2035</v>
       </c>
@@ -39663,7 +39682,7 @@
       </c>
       <c r="X20" s="21"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K21" s="20">
         <f>SUM(K6:K15)</f>
         <v>29615430623.013103</v>
@@ -39682,7 +39701,7 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="O23" t="s">
         <v>105</v>
       </c>
@@ -39693,7 +39712,7 @@
       <c r="S23" s="34"/>
       <c r="T23" s="34"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="O24" t="s">
         <v>104</v>
       </c>
@@ -39704,8 +39723,8 @@
       <c r="S24" s="74"/>
       <c r="T24" s="74"/>
     </row>
-    <row r="25" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="X26" s="52" t="s">
         <v>115</v>
       </c>
@@ -39715,7 +39734,7 @@
       </c>
       <c r="AA26" s="58"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -39754,7 +39773,7 @@
       </c>
       <c r="AA27" s="58"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2030</v>
       </c>
@@ -39800,11 +39819,11 @@
       </c>
       <c r="AA28" s="60"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="X29" s="57"/>
       <c r="Y29" s="57"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="O30" t="s">
         <v>105</v>
       </c>
@@ -39817,7 +39836,7 @@
       <c r="X30" s="57"/>
       <c r="Y30" s="57"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="O31" t="s">
         <v>104</v>
       </c>
@@ -39828,7 +39847,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="R33" s="20">
         <f>H5*(1-(((1+B4/100)^10)-1))+H5*(1+C4/100)*(((1+B4/100)^10)-1)-H5</f>
         <v>175028691.45801401</v>
@@ -39836,17 +39855,17 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="R34" s="20"/>
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>122</v>
       </c>
@@ -39860,7 +39879,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>96</v>
       </c>
@@ -39874,7 +39893,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>369</v>
       </c>
@@ -39888,7 +39907,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>253</v>
       </c>
@@ -39915,28 +39934,28 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" customWidth="1"/>
+    <col min="15" max="15" width="27.109375" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>76</v>
       </c>
@@ -39974,7 +39993,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -40022,7 +40041,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -40070,7 +40089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -40118,7 +40137,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -40166,7 +40185,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -40210,7 +40229,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -40258,7 +40277,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -40302,7 +40321,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -40346,7 +40365,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -40390,7 +40409,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -40434,7 +40453,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I12">
         <v>0.99</v>
       </c>
@@ -40462,7 +40481,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -40486,7 +40505,7 @@
         <v>-0.60431354542597548</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -40499,7 +40518,7 @@
         <v>560.71606005178774</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O15" t="s">
         <v>111</v>
       </c>
@@ -40508,7 +40527,7 @@
         <v>-12.224559264720519</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -40521,7 +40540,7 @@
         <v>21.036055526234769</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>92</v>
       </c>
@@ -40565,7 +40584,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
         <v>3</v>
       </c>
@@ -40573,7 +40592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>2020</v>
       </c>
@@ -40609,7 +40628,7 @@
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>2021</v>
       </c>
@@ -40657,7 +40676,7 @@
         <v>65881.8796043396</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="35">
         <v>2022</v>
       </c>
@@ -40705,7 +40724,7 @@
         <v>4761637.0125384331</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>2023</v>
       </c>
@@ -40753,7 +40772,7 @@
         <v>9316519.4914848804</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35">
         <v>2024</v>
       </c>
@@ -40801,7 +40820,7 @@
         <v>13734755.496062994</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>2025</v>
       </c>
@@ -40849,7 +40868,7 @@
         <v>18020444.420503378</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="35">
         <v>2026</v>
       </c>
@@ -40897,7 +40916,7 @@
         <v>22177562.677210808</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>2027</v>
       </c>
@@ -40945,7 +40964,7 @@
         <v>26209967.386216879</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="35">
         <v>2028</v>
       </c>
@@ -40993,7 +41012,7 @@
         <v>30121399.953953028</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>2029</v>
       </c>
@@ -41041,7 +41060,7 @@
         <v>33915489.544656754</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="35">
         <v>2030</v>
       </c>
@@ -41089,7 +41108,7 @@
         <v>37595756.447639704</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K32" s="20">
         <f>SUM(K22:K31)</f>
         <v>13699911154.642929</v>
@@ -41103,13 +41122,13 @@
         <v>15855024712.051502</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="Q33" s="20">
         <f>SUM(Q22:Q32)</f>
         <v>195919414.3098712</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H34" s="20">
         <f>J34+M34</f>
         <v>1184905523.6070931</v>
@@ -41130,7 +41149,7 @@
         <v>1.0125115331038823</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>104</v>
       </c>
@@ -41139,8 +41158,8 @@
         <v>195919414.30987167</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -41168,7 +41187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2030</v>
       </c>
@@ -41201,7 +41220,7 @@
         <v>1619764757.7518396</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N41" t="s">
         <v>105</v>
       </c>
@@ -41210,7 +41229,7 @@
         <v>1.0343916379344122</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>104</v>
       </c>
@@ -41219,13 +41238,13 @@
         <v>53854227.97767663</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O44" s="20">
         <f>H21*(1-(((1+B20/100)^10)-1))+H21*(1+C20/100)*(((1+B20/100)^10)-1)-H21</f>
         <v>53854227.97767663</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O45" s="20"/>
     </row>
   </sheetData>
@@ -41238,31 +41257,31 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="93.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="93.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="27.109375" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="67" t="s">
         <v>140</v>
       </c>
@@ -41282,7 +41301,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D2" s="7" t="s">
         <v>113</v>
       </c>
@@ -41300,7 +41319,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -41326,7 +41345,7 @@
         <v>-1.9388922042525264E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -41352,7 +41371,7 @@
         <v>-4.4015029643099633E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -41380,7 +41399,7 @@
         <v>-6.6557302516646988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>0.7</v>
       </c>
@@ -41397,7 +41416,7 @@
         <v>-4.9947338663412888E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>0.9</v>
       </c>
@@ -41411,7 +41430,7 @@
       </c>
       <c r="G7" s="70"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>1.1000000000000001</v>
       </c>
@@ -41425,7 +41444,7 @@
       </c>
       <c r="G8" s="70"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>1.3</v>
       </c>
@@ -41439,7 +41458,7 @@
       </c>
       <c r="G9" s="70"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>1.5</v>
       </c>
@@ -41453,7 +41472,7 @@
       </c>
       <c r="G10" s="70"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>1.7</v>
       </c>
@@ -41467,7 +41486,7 @@
       </c>
       <c r="G11" s="70"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>1.9</v>
       </c>
@@ -41481,7 +41500,7 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D13">
         <v>2.1</v>
       </c>
@@ -41495,7 +41514,7 @@
       </c>
       <c r="G13" s="70"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>2.2999999999999998</v>
       </c>
@@ -41509,7 +41528,7 @@
       </c>
       <c r="G14" s="70"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15"/>
       <c r="E15" s="69">
         <f>SUM(E3:E14)</f>
@@ -41524,7 +41543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E16" s="68"/>
       <c r="F16" s="71" t="s">
         <v>146</v>
@@ -41537,10 +41556,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="G17" s="15"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -41550,7 +41569,7 @@
       <c r="L20" s="57"/>
       <c r="M20" s="57"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -41560,7 +41579,7 @@
       <c r="L21" s="57"/>
       <c r="M21" s="57"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="35"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -41575,7 +41594,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="35"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -41594,7 +41613,7 @@
       <c r="R23" s="49"/>
       <c r="S23" s="20"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="35"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -41613,7 +41632,7 @@
       <c r="R24" s="49"/>
       <c r="S24" s="20"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C25" s="35"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -41632,7 +41651,7 @@
       <c r="R25" s="49"/>
       <c r="S25" s="20"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26" s="35"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -41651,7 +41670,7 @@
       <c r="R26" s="49"/>
       <c r="S26" s="20"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C27" s="35"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -41670,7 +41689,7 @@
       <c r="R27" s="49"/>
       <c r="S27" s="20"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C28" s="35"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -41689,7 +41708,7 @@
       <c r="R28" s="49"/>
       <c r="S28" s="20"/>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C29" s="35"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -41708,7 +41727,7 @@
       <c r="R29" s="49"/>
       <c r="S29" s="20"/>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C30" s="35"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -41727,7 +41746,7 @@
       <c r="R30" s="49"/>
       <c r="S30" s="20"/>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C31" s="35"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -41746,7 +41765,7 @@
       <c r="R31" s="49"/>
       <c r="S31" s="20"/>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C32" s="35"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
@@ -41765,32 +41784,32 @@
       <c r="R32" s="49"/>
       <c r="S32" s="63"/>
     </row>
-    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:19" x14ac:dyDescent="0.3">
       <c r="M33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
     </row>
-    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:19" x14ac:dyDescent="0.3">
       <c r="S34" s="20"/>
     </row>
-    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J35" s="20"/>
       <c r="L35" s="20"/>
       <c r="O35" s="20"/>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:19" x14ac:dyDescent="0.3">
       <c r="Q36" s="20"/>
     </row>
-    <row r="37" spans="10:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="10:19" x14ac:dyDescent="0.3">
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="33"/>
       <c r="P39" s="33"/>
     </row>
-    <row r="40" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:19" x14ac:dyDescent="0.3">
       <c r="K40" s="33"/>
       <c r="L40" s="20"/>
       <c r="M40" s="33"/>
@@ -41799,19 +41818,19 @@
       <c r="P40" s="33"/>
       <c r="Q40" s="20"/>
     </row>
-    <row r="42" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:19" x14ac:dyDescent="0.3">
       <c r="Q42" s="34"/>
     </row>
-    <row r="43" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:19" x14ac:dyDescent="0.3">
       <c r="Q43" s="20"/>
     </row>
-    <row r="45" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:19" x14ac:dyDescent="0.3">
       <c r="Q45" s="20">
         <f>J22*(1-(((1+D21/100)^10)-1))+J22*(1+E21/100)*(((1+D21/100)^10)-1)-J22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:19" x14ac:dyDescent="0.3">
       <c r="Q46" s="20"/>
     </row>
   </sheetData>
@@ -41828,9 +41847,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>94</v>
       </c>
@@ -41842,7 +41861,7 @@
         <v>210000.00000000003</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>149</v>
       </c>
@@ -41857,41 +41876,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E70D79C-EC36-4226-8058-736E061840BD}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
     <col min="17" max="17" width="7" style="38" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="39" t="s">
         <v>92</v>
       </c>
@@ -41953,7 +41974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="15">
         <v>3</v>
       </c>
@@ -41966,7 +41987,7 @@
       <c r="P2" s="77"/>
       <c r="T2" s="53"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>2020</v>
       </c>
@@ -42019,8 +42040,15 @@
       <c r="U3" s="51">
         <v>-60000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="20">
+        <f t="shared" ref="W3:W13" si="1">T3/1.05^(V3+1)</f>
+        <v>-57142857.142857142</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>2021</v>
       </c>
@@ -42036,19 +42064,19 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J4" s="33">
-        <f t="shared" ref="J3:J13" si="1">$D$3-M4</f>
+        <f t="shared" ref="J4:J13" si="2">$D$3-M4</f>
         <v>3655009.6640000003</v>
       </c>
       <c r="K4" s="78">
-        <f t="shared" ref="K3:K13" si="2">J4*(I4*$G$3-$H$8)</f>
+        <f t="shared" ref="K4:K13" si="3">J4*(I4*$G$3-$H$8)</f>
         <v>386283198.44661731</v>
       </c>
       <c r="L4" s="33">
-        <f t="shared" ref="L4:L13" si="3">$E$3*(1+$C$2/100)</f>
+        <f t="shared" ref="L4:L13" si="4">$E$3*(1+$C$2/100)</f>
         <v>2.5341471315464075</v>
       </c>
       <c r="M4" s="33">
-        <f t="shared" ref="M4:M13" si="4">J3*($B$2/100)+M3</f>
+        <f t="shared" ref="M4:M13" si="5">J3*($B$2/100)+M3</f>
         <v>113041.53600000001</v>
       </c>
       <c r="N4" s="78">
@@ -42056,14 +42084,14 @@
         <v>15530973.958162962</v>
       </c>
       <c r="O4" s="80">
-        <f>(K4+N4)-K$3</f>
+        <f t="shared" ref="O4:O12" si="6">(K4+N4)-K$3</f>
         <v>3584070.9134222269</v>
       </c>
       <c r="P4" s="80">
         <v>0</v>
       </c>
       <c r="Q4" s="38">
-        <f t="shared" ref="Q4:Q13" si="5">M4/$D$3</f>
+        <f t="shared" ref="Q4:Q13" si="7">M4/$D$3</f>
         <v>0.03</v>
       </c>
       <c r="R4" s="2">
@@ -42085,8 +42113,15 @@
       <c r="V4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="20">
+        <f t="shared" si="1"/>
+        <v>4465525.3223980283</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>2022</v>
       </c>
@@ -42102,34 +42137,34 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J5" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3545359.37408</v>
       </c>
       <c r="K5" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>374694702.49321872</v>
       </c>
       <c r="L5" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M5" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>222691.82592000003</v>
       </c>
       <c r="N5" s="78">
-        <f t="shared" ref="N4:N13" si="6">M5*(L5*$G$3-$H$9)</f>
+        <f t="shared" ref="N5:N13" si="8">M5*(L5*$G$3-$H$9)</f>
         <v>30596018.697581038</v>
       </c>
       <c r="O5" s="80">
-        <f>(K5+N5)-K$3</f>
+        <f t="shared" si="6"/>
         <v>7060619.699441731</v>
       </c>
       <c r="P5" s="80">
         <v>0</v>
       </c>
       <c r="Q5" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9100000000000007E-2</v>
       </c>
       <c r="R5" s="2">
@@ -42137,22 +42172,29 @@
         <v>2638166.3864075518</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5:S13" si="7">O5</f>
+        <f t="shared" ref="S5:S13" si="9">O5</f>
         <v>7060619.699441731</v>
       </c>
       <c r="T5" s="61">
-        <f t="shared" ref="T5:T13" si="8">R5+S5</f>
+        <f t="shared" ref="T5:T13" si="10">R5+S5</f>
         <v>9698786.0858492833</v>
       </c>
       <c r="U5" s="20">
-        <f t="shared" ref="U4:U13" si="9">T5/1.05^V5</f>
+        <f t="shared" ref="U5:U13" si="11">T5/1.05^V5</f>
         <v>8797084.8851240668</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="20">
+        <f t="shared" si="1"/>
+        <v>8378176.0810705386</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>2023</v>
       </c>
@@ -42168,46 +42210,46 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J6" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3438998.5928576002</v>
       </c>
       <c r="K6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>363453861.41842222</v>
       </c>
       <c r="L6" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M6" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>329052.6071424</v>
       </c>
       <c r="N6" s="78">
+        <f t="shared" si="8"/>
+        <v>45209112.094816566</v>
+      </c>
+      <c r="O6" s="80">
         <f t="shared" si="6"/>
-        <v>45209112.094816566</v>
-      </c>
-      <c r="O6" s="80">
-        <f>(K6+N6)-K$3</f>
         <v>10432872.021880746</v>
       </c>
       <c r="P6" s="80">
         <v>0</v>
       </c>
       <c r="Q6" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.7326999999999988E-2</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" ref="R4:R13" si="10">0.033*L6*M6*G$3</f>
+        <f t="shared" ref="R6:R13" si="12">0.033*L6*M6*G$3</f>
         <v>3898192.1493369243</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10432872.021880746</v>
       </c>
       <c r="T6" s="61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14331064.171217671</v>
       </c>
       <c r="U6" s="20">
@@ -42217,8 +42259,15 @@
       <c r="V6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="20">
+        <f t="shared" si="1"/>
+        <v>11790201.960062049</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>2024</v>
       </c>
@@ -42234,57 +42283,64 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J7" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3335828.6350718723</v>
       </c>
       <c r="K7" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>352550245.57586956</v>
       </c>
       <c r="L7" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M7" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>432222.56492812798</v>
       </c>
       <c r="N7" s="78">
+        <f t="shared" si="8"/>
+        <v>59383812.690135024</v>
+      </c>
+      <c r="O7" s="80">
         <f t="shared" si="6"/>
-        <v>59383812.690135024</v>
-      </c>
-      <c r="O7" s="80">
-        <f>(K7+N7)-K$3</f>
         <v>13703956.774646521</v>
       </c>
       <c r="P7" s="80">
         <v>0</v>
       </c>
       <c r="Q7" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11470718999999999</v>
       </c>
       <c r="R7" s="2">
+        <f t="shared" si="12"/>
+        <v>5120417.1393784164</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="9"/>
+        <v>13703956.774646521</v>
+      </c>
+      <c r="T7" s="61">
         <f t="shared" si="10"/>
-        <v>5120417.1393784164</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="7"/>
-        <v>13703956.774646521</v>
-      </c>
-      <c r="T7" s="61">
-        <f t="shared" si="8"/>
         <v>18824373.914024938</v>
       </c>
       <c r="U7" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15486859.005476061</v>
       </c>
       <c r="V7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="20">
+        <f t="shared" si="1"/>
+        <v>14749389.529024819</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>2025</v>
       </c>
@@ -42305,57 +42361,64 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J8" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3235753.7760197162</v>
       </c>
       <c r="K8" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>341973738.20859349</v>
       </c>
       <c r="L8" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M8" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>532297.42398028413</v>
       </c>
       <c r="N8" s="78">
+        <f t="shared" si="8"/>
+        <v>73133272.267593935</v>
+      </c>
+      <c r="O8" s="80">
         <f t="shared" si="6"/>
-        <v>73133272.267593935</v>
-      </c>
-      <c r="O8" s="80">
-        <f>(K8+N8)-K$3</f>
         <v>16876908.984829366</v>
       </c>
       <c r="P8" s="80">
         <v>0</v>
       </c>
       <c r="Q8" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14126597429999999</v>
       </c>
       <c r="R8" s="2">
+        <f t="shared" si="12"/>
+        <v>6305975.3797186632</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="9"/>
+        <v>16876908.984829366</v>
+      </c>
+      <c r="T8" s="61">
         <f t="shared" si="10"/>
-        <v>6305975.3797186632</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="7"/>
-        <v>16876908.984829366</v>
-      </c>
-      <c r="T8" s="61">
-        <f t="shared" si="8"/>
         <v>23182884.364548028</v>
       </c>
       <c r="U8" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18164396.513835892</v>
       </c>
       <c r="V8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="20">
+        <f t="shared" si="1"/>
+        <v>17299425.25127228</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>2026</v>
       </c>
@@ -42376,57 +42439,64 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J9" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3138681.1627391246</v>
       </c>
       <c r="K9" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>331714526.06233567</v>
       </c>
       <c r="L9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>629370.03726087557</v>
       </c>
       <c r="N9" s="78">
+        <f t="shared" si="8"/>
+        <v>86470248.057729065</v>
+      </c>
+      <c r="O9" s="80">
         <f t="shared" si="6"/>
-        <v>86470248.057729065</v>
-      </c>
-      <c r="O9" s="80">
-        <f>(K9+N9)-K$3</f>
         <v>19954672.628706694</v>
       </c>
       <c r="P9" s="80">
         <v>0</v>
       </c>
       <c r="Q9" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16702799507099997</v>
       </c>
       <c r="R9" s="2">
+        <f t="shared" si="12"/>
+        <v>7455966.8728487035</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="9"/>
+        <v>19954672.628706694</v>
+      </c>
+      <c r="T9" s="61">
         <f t="shared" si="10"/>
-        <v>7455966.8728487035</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="7"/>
-        <v>19954672.628706694</v>
-      </c>
-      <c r="T9" s="61">
-        <f t="shared" si="8"/>
         <v>27410639.501555398</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20454241.227716774</v>
       </c>
       <c r="V9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="20">
+        <f t="shared" si="1"/>
+        <v>19480229.740682639</v>
+      </c>
+      <c r="X9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>2027</v>
       </c>
@@ -42446,57 +42516,64 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J10" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3044520.7278569508</v>
       </c>
       <c r="K10" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>321763090.2804656</v>
       </c>
       <c r="L10" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M10" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>723530.47214304935</v>
       </c>
       <c r="N10" s="78">
+        <f t="shared" si="8"/>
+        <v>99407114.574160174</v>
+      </c>
+      <c r="O10" s="80">
         <f t="shared" si="6"/>
-        <v>99407114.574160174</v>
-      </c>
-      <c r="O10" s="80">
-        <f>(K10+N10)-K$3</f>
         <v>22940103.36326772</v>
       </c>
       <c r="P10" s="80">
         <v>0</v>
       </c>
       <c r="Q10" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19201715521887</v>
       </c>
       <c r="R10" s="2">
+        <f t="shared" si="12"/>
+        <v>8571458.6211848427</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="9"/>
+        <v>22940103.36326772</v>
+      </c>
+      <c r="T10" s="61">
         <f t="shared" si="10"/>
-        <v>8571458.6211848427</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="7"/>
-        <v>22940103.36326772</v>
-      </c>
-      <c r="T10" s="61">
-        <f t="shared" si="8"/>
         <v>31511561.984452561</v>
       </c>
       <c r="U10" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22394678.785588514</v>
       </c>
       <c r="V10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="20">
+        <f t="shared" si="1"/>
+        <v>21328265.510084301</v>
+      </c>
+      <c r="X10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>2028</v>
       </c>
@@ -42512,57 +42589,64 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J11" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2953185.1060212422</v>
       </c>
       <c r="K11" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>312110197.57205158</v>
       </c>
       <c r="L11" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M11" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>814866.09397875785</v>
       </c>
       <c r="N11" s="78">
+        <f t="shared" si="8"/>
+        <v>111955875.09509832</v>
+      </c>
+      <c r="O11" s="80">
         <f t="shared" si="6"/>
-        <v>111955875.09509832</v>
-      </c>
-      <c r="O11" s="80">
-        <f>(K11+N11)-K$3</f>
         <v>25835971.17579186</v>
       </c>
       <c r="P11" s="80">
         <v>0</v>
       </c>
       <c r="Q11" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21625664056230387</v>
       </c>
       <c r="R11" s="2">
+        <f t="shared" si="12"/>
+        <v>9653485.6170708966</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="9"/>
+        <v>25835971.17579186</v>
+      </c>
+      <c r="T11" s="61">
         <f t="shared" si="10"/>
-        <v>9653485.6170708966</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="7"/>
-        <v>25835971.17579186</v>
-      </c>
-      <c r="T11" s="61">
-        <f t="shared" si="8"/>
         <v>35489456.792862758</v>
       </c>
       <c r="U11" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24020661.294425886</v>
       </c>
       <c r="V11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="20">
+        <f t="shared" si="1"/>
+        <v>22876820.280405607</v>
+      </c>
+      <c r="X11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>2029</v>
       </c>
@@ -42578,57 +42662,64 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J12" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2864589.5528406049</v>
       </c>
       <c r="K12" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302746891.64489007</v>
       </c>
       <c r="L12" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M12" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>903461.64715939516</v>
       </c>
       <c r="N12" s="78">
+        <f t="shared" si="8"/>
+        <v>124128172.80040833</v>
+      </c>
+      <c r="O12" s="80">
         <f t="shared" si="6"/>
-        <v>124128172.80040833</v>
-      </c>
-      <c r="O12" s="80">
-        <f>(K12+N12)-K$3</f>
         <v>28644962.953940392</v>
       </c>
       <c r="P12" s="80">
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23976894134543478</v>
       </c>
       <c r="R12" s="2">
+        <f t="shared" si="12"/>
+        <v>10703051.803080371</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="9"/>
+        <v>28644962.953940392</v>
+      </c>
+      <c r="T12" s="61">
         <f t="shared" si="10"/>
-        <v>10703051.803080371</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" si="7"/>
-        <v>28644962.953940392</v>
-      </c>
-      <c r="T12" s="61">
-        <f t="shared" si="8"/>
         <v>39348014.757020764</v>
       </c>
       <c r="U12" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>25364081.147845048</v>
       </c>
       <c r="V12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="20">
+        <f t="shared" si="1"/>
+        <v>24156267.759852428</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>2030</v>
       </c>
@@ -42644,64 +42735,71 @@
         <v>1.9493439473433904</v>
       </c>
       <c r="J13" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2778651.8662553867</v>
       </c>
       <c r="K13" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>293664484.89554334</v>
       </c>
       <c r="L13" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5341471315464075</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>989399.33374461334</v>
       </c>
       <c r="N13" s="78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>135935301.57455906</v>
       </c>
       <c r="O13" s="80">
-        <f t="shared" ref="O6:O13" si="11">(K13+N13)-K$3</f>
+        <f t="shared" ref="O13" si="13">(K13+N13)-K$3</f>
         <v>31369684.978744388</v>
       </c>
       <c r="P13" s="80">
         <v>0</v>
       </c>
       <c r="Q13" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26257587310507174</v>
       </c>
       <c r="R13" s="2">
+        <f t="shared" si="12"/>
+        <v>11721131.003509559</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="9"/>
+        <v>31369684.978744388</v>
+      </c>
+      <c r="T13" s="61">
         <f t="shared" si="10"/>
-        <v>11721131.003509559</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="7"/>
-        <v>31369684.978744388</v>
-      </c>
-      <c r="T13" s="61">
-        <f t="shared" si="8"/>
         <v>43090815.982253946</v>
       </c>
       <c r="U13" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26454023.03739167</v>
       </c>
       <c r="V13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="20">
+        <f t="shared" si="1"/>
+        <v>25194307.654658731</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="T14" s="50"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R15" s="52" t="s">
         <v>115</v>
       </c>
@@ -42709,10 +42807,16 @@
         <f>NPV(0.05,T3:T13)</f>
         <v>112575751.94665425</v>
       </c>
-      <c r="T15" s="50"/>
-      <c r="U15" s="58"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U15" s="51">
+        <f>SUM(U3:U13)</f>
+        <v>118204539.54398701</v>
+      </c>
+      <c r="W15" s="20">
+        <f>SUM(W3:W13)</f>
+        <v>112575751.94665429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D16" s="85" t="s">
         <v>164</v>
       </c>
@@ -42731,9 +42835,12 @@
         <v>0.25930844497129013</v>
       </c>
       <c r="T16" s="50"/>
-      <c r="U16" s="58"/>
-    </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="U16" s="58">
+        <f>SUM(T3:T13)/(1+0.05)^10</f>
+        <v>115299563.35683219</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I17" s="33"/>
       <c r="J17" s="20"/>
       <c r="K17" s="33"/>
@@ -42752,27 +42859,218 @@
       <c r="T17" s="50"/>
       <c r="U17" s="60"/>
     </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q18" s="100"/>
       <c r="R18" s="57"/>
       <c r="S18" s="57"/>
-    </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+    </row>
+    <row r="19" spans="9:23" x14ac:dyDescent="0.3">
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
+      <c r="Q19" s="100"/>
       <c r="R19" s="57"/>
       <c r="S19" s="57"/>
-    </row>
-    <row r="20" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+    </row>
+    <row r="20" spans="9:23" x14ac:dyDescent="0.3">
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="Q20" s="100"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+    </row>
+    <row r="21" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q21" s="100"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="57"/>
+    </row>
+    <row r="22" spans="9:23" x14ac:dyDescent="0.3">
       <c r="O22" s="82"/>
       <c r="P22" s="82"/>
-    </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="Q22" s="100"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+    </row>
+    <row r="23" spans="9:23" x14ac:dyDescent="0.3">
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+    </row>
+    <row r="24" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q24" s="100"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+    </row>
+    <row r="25" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q25" s="100"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+    </row>
+    <row r="26" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q26" s="100"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+    </row>
+    <row r="27" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q27" s="100"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+    </row>
+    <row r="28" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q28" s="100"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+    </row>
+    <row r="29" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q29" s="100"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+    </row>
+    <row r="30" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q30" s="100"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+    </row>
+    <row r="31" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q31" s="100"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+    </row>
+    <row r="32" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="Q32" s="100"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+    </row>
+    <row r="33" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q33" s="100"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+    </row>
+    <row r="34" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="Q34" s="100"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+    </row>
+    <row r="35" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="89"/>
+    </row>
+    <row r="36" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="89"/>
+    </row>
+    <row r="37" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="89"/>
+    </row>
+    <row r="38" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="89"/>
+    </row>
+    <row r="39" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="89"/>
+    </row>
+    <row r="40" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="89"/>
+    </row>
+    <row r="41" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="89"/>
+    </row>
+    <row r="42" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="89"/>
+    </row>
+    <row r="43" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="90"/>
+    </row>
+    <row r="44" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="92"/>
+    </row>
+    <row r="45" spans="17:23" x14ac:dyDescent="0.3">
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="91"/>
+      <c r="U45" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42789,97 +43087,97 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="86"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="86" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="86" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="86" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="86" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="86"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="86" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="86" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="86" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="86" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86" t="s">
         <v>176</v>
       </c>
     </row>
